--- a/dfpyme/Cruce de inventarios  .xlsx
+++ b/dfpyme/Cruce de inventarios  .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
   <si>
     <t xml:space="preserve">CRUCE DE INVENTARIOS </t>
   </si>
@@ -53,697 +53,2140 @@
     <t xml:space="preserve">Valor venta </t>
   </si>
   <si>
+    <t>MANI MOTO PASAS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-11.400</t>
+  </si>
+  <si>
+    <t>-18.000</t>
+  </si>
+  <si>
+    <t>GUACAMOLE INSUMO GR</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>36.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRETAÑA INSUMO </t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>-64.500</t>
+  </si>
+  <si>
+    <t>ALOHA VASO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.420</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>CASERO FRESA BANANO</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>37.317</t>
+  </si>
+  <si>
+    <t>56.700</t>
+  </si>
+  <si>
+    <t>BARRA DE GRANOLA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16.900</t>
+  </si>
+  <si>
+    <t>39.000</t>
+  </si>
+  <si>
+    <t>PALETA CHOCOLISTO</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22.960</t>
+  </si>
+  <si>
+    <t>37.800</t>
+  </si>
+  <si>
+    <t>CERVEZA PILSEN LATON</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>64.992</t>
+  </si>
+  <si>
+    <t>132.000</t>
+  </si>
+  <si>
+    <t>BOCATTO</t>
+  </si>
+  <si>
+    <t>PLATILLO</t>
+  </si>
+  <si>
+    <t>31.460</t>
+  </si>
+  <si>
+    <t>48.100</t>
+  </si>
+  <si>
+    <t>MORA INSUMO GR</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>GALLETAS DUCALES INSUMO UND</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>62.000</t>
+  </si>
+  <si>
+    <t>124.000</t>
+  </si>
+  <si>
+    <t>CHICHARRON INSUMO GR</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>-982</t>
+  </si>
+  <si>
+    <t>-29.460</t>
+  </si>
+  <si>
+    <t>HIERBA BUENA INSUMO GR</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-1.254</t>
+  </si>
+  <si>
+    <t>LECHE DE ALMENDRAS INSUMO ML</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>12816</t>
+  </si>
+  <si>
+    <t>-11670</t>
+  </si>
+  <si>
+    <t>-105.030</t>
+  </si>
+  <si>
+    <t>GRANOLA INSUMO GR</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-400</t>
+  </si>
+  <si>
+    <t>AGUILA ORIGINAL INSUMO</t>
+  </si>
+  <si>
+    <t>64.800</t>
+  </si>
+  <si>
+    <t>HELADOS CREMA</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-36.000</t>
+  </si>
+  <si>
+    <t>-54.000</t>
+  </si>
+  <si>
+    <t>PROTEINA (POLLO)  INSUMO GR</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>23.850.000</t>
+  </si>
+  <si>
+    <t>MIEL INSUMO GR</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>-240</t>
+  </si>
+  <si>
+    <t>-5.040</t>
+  </si>
+  <si>
+    <t>PROTECTOR DE PALA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49.000</t>
+  </si>
+  <si>
+    <t>105.000</t>
+  </si>
+  <si>
+    <t>CHIA INSUMO GR</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2.320</t>
+  </si>
+  <si>
+    <t>FRESA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3655</t>
+  </si>
+  <si>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>-104</t>
+  </si>
+  <si>
+    <t>-2.080</t>
+  </si>
+  <si>
+    <t>MILO INSUMO GR</t>
+  </si>
+  <si>
+    <t>2680</t>
+  </si>
+  <si>
+    <t>3514</t>
+  </si>
+  <si>
+    <t>-834</t>
+  </si>
+  <si>
+    <t>-33.360</t>
+  </si>
+  <si>
+    <t>MAHATI</t>
+  </si>
+  <si>
+    <t>BATIDO VERDE</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>28.000</t>
+  </si>
+  <si>
+    <t>PALETA ALOHA LIMON</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-20.250</t>
+  </si>
+  <si>
+    <t>-40.500</t>
+  </si>
+  <si>
+    <t>EMPANADAS INSUMO UND</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>-132</t>
+  </si>
+  <si>
+    <t>-171.600</t>
+  </si>
+  <si>
+    <t>ALFAJORES</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>34.000</t>
+  </si>
+  <si>
+    <t>68.000</t>
+  </si>
+  <si>
+    <t>PALETA SODAS</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>44.000</t>
+  </si>
+  <si>
+    <t>CASERO RON CON PASAS</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>24.878</t>
+  </si>
+  <si>
+    <t>BROWNIE NUAT</t>
+  </si>
+  <si>
+    <t>-6.000</t>
+  </si>
+  <si>
+    <t>CHOCOLATE INSUMO UND</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>60.000</t>
+  </si>
+  <si>
+    <t>LECHE INSUMO ML</t>
+  </si>
+  <si>
+    <t>16900</t>
+  </si>
+  <si>
+    <t>20150</t>
+  </si>
+  <si>
+    <t>-3250</t>
+  </si>
+  <si>
+    <t>-19.500</t>
+  </si>
+  <si>
+    <t>PALETA ALOHA NARANJA</t>
+  </si>
+  <si>
+    <t>1.350</t>
+  </si>
+  <si>
+    <t>2.700</t>
+  </si>
+  <si>
+    <t>OVERGRIP PALBEA</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>HIELO INSUMO GR</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>-350</t>
+  </si>
+  <si>
+    <t>7650</t>
+  </si>
+  <si>
+    <t>76.500</t>
+  </si>
+  <si>
+    <t>CREMA DE LECHE INSUMO ML</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>PONY MALTA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1.700</t>
+  </si>
+  <si>
+    <t>3.000</t>
+  </si>
+  <si>
+    <t>PALETA ALOHA MANGO BICHE</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-13.500</t>
+  </si>
+  <si>
+    <t>-27.000</t>
+  </si>
+  <si>
+    <t>MIX DE VERDE INSUMO GR</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
+  <si>
+    <t>-2265</t>
+  </si>
+  <si>
+    <t>-181.200</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-46.400</t>
+  </si>
+  <si>
+    <t>-80.000</t>
+  </si>
+  <si>
+    <t>GALLETAS SWEET BAKERY</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>-16.000</t>
+  </si>
+  <si>
+    <t>PALETA JET</t>
+  </si>
+  <si>
+    <t>-6.256</t>
+  </si>
+  <si>
+    <t>-10.800</t>
+  </si>
+  <si>
+    <t>CASERO COCO</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>26.655</t>
+  </si>
+  <si>
+    <t>40.500</t>
+  </si>
+  <si>
+    <t>PALETA DRACULA</t>
+  </si>
+  <si>
+    <t>65.000</t>
+  </si>
+  <si>
+    <t>PAN SEMILLAS UND</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>AZUCAR INSUMO GR</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>4122</t>
+  </si>
+  <si>
+    <t>-1622</t>
+  </si>
+  <si>
+    <t>-32.440</t>
+  </si>
+  <si>
+    <t>CEBOLLA LARGA INSUMO GR</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>AGUA LITRO</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>64.504</t>
+  </si>
+  <si>
+    <t>GASEOSA MANZANA 400</t>
+  </si>
+  <si>
+    <t>18.326</t>
+  </si>
+  <si>
+    <t>33.000</t>
+  </si>
+  <si>
+    <t>GASEOSA NARANJA 400</t>
+  </si>
+  <si>
+    <t>8.330</t>
+  </si>
+  <si>
+    <t>TRISSITOS 34G</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31.784</t>
+  </si>
+  <si>
+    <t>63.800</t>
+  </si>
+  <si>
+    <t>HIT MANGO</t>
+  </si>
+  <si>
+    <t>-5.366</t>
+  </si>
+  <si>
+    <t>-7.000</t>
+  </si>
+  <si>
+    <t>BOCADILLO UND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>CAFE INSUMO GR</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>-1.792</t>
+  </si>
+  <si>
+    <t>AREPA INSUMO UND</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-52.500</t>
+  </si>
+  <si>
+    <t>CHOCOLATINA JET</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>29.111</t>
+  </si>
+  <si>
+    <t>43.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA DE AJO INSUMO GR</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>-252</t>
+  </si>
+  <si>
+    <t>-15.120</t>
+  </si>
+  <si>
+    <t>CHOKIS CLASICA</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15.431</t>
+  </si>
+  <si>
+    <t>26.000</t>
+  </si>
+  <si>
+    <t>BOLAS NOX PRO TITANIUM</t>
+  </si>
+  <si>
+    <t>672.000</t>
+  </si>
+  <si>
+    <t>1.080.000</t>
+  </si>
+  <si>
+    <t>AGUILA ORIGINAL LATON INSUMO</t>
+  </si>
+  <si>
+    <t>8.499</t>
+  </si>
+  <si>
+    <t>HIT MORA</t>
+  </si>
+  <si>
+    <t>5.366</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>HIT TROPICAL</t>
+  </si>
+  <si>
+    <t>MANIMOTO NATURAL</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11.214</t>
+  </si>
+  <si>
+    <t>27.000</t>
+  </si>
+  <si>
+    <t>CHOKIS BLACK</t>
+  </si>
+  <si>
+    <t>4.748</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>GASEOSA PEPSI 400</t>
+  </si>
+  <si>
+    <t>3.332</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>GATORADE MANDARINA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>-15.600</t>
+  </si>
+  <si>
+    <t>CLUB COLOMBIA LATÓN</t>
+  </si>
+  <si>
+    <t>66.470</t>
+  </si>
+  <si>
+    <t>138.000</t>
+  </si>
+  <si>
+    <t>AGUA 600</t>
+  </si>
+  <si>
+    <t>11.662</t>
+  </si>
+  <si>
+    <t>HIT LULO</t>
+  </si>
+  <si>
+    <t>2.683</t>
+  </si>
+  <si>
+    <t>3.500</t>
+  </si>
+  <si>
+    <t>ARANDANOS INSUMO GR</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>GATORADE SIN AZUCAR</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>-9.000</t>
+  </si>
+  <si>
+    <t>-15.000</t>
+  </si>
+  <si>
+    <t>GASEOSA COLOMBIANA 400</t>
+  </si>
+  <si>
+    <t>13.328</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>TAMARINDO</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>LIMON GR</t>
+  </si>
+  <si>
+    <t>7388</t>
+  </si>
+  <si>
+    <t>-6188</t>
+  </si>
+  <si>
+    <t>-618.800</t>
+  </si>
+  <si>
+    <t>H2O LIMON</t>
+  </si>
+  <si>
+    <t>15.162</t>
+  </si>
+  <si>
+    <t>25.900</t>
+  </si>
+  <si>
+    <t>MR TEA DURAZNO</t>
+  </si>
+  <si>
+    <t>-4.166</t>
+  </si>
+  <si>
+    <t>PAN BRIOCHE INSUMO UND</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>-34.200</t>
+  </si>
+  <si>
+    <t>CEBOLLA MORADA INSUMO GR</t>
+  </si>
+  <si>
+    <t>5420</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>36.900</t>
+  </si>
+  <si>
+    <t>MANIMOTO FLAMING HOT</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>PILSEN INSUMO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MANIMOTO LIMON</t>
+  </si>
+  <si>
+    <t>REDBULL</t>
+  </si>
+  <si>
+    <t>CHOKIS BOLITA</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-1.187</t>
+  </si>
+  <si>
+    <t>-2.000</t>
+  </si>
+  <si>
+    <t>GATORADE AZUL</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>148.200</t>
+  </si>
+  <si>
+    <t>256.500</t>
+  </si>
+  <si>
+    <t>GASEOSA UVA 400</t>
+  </si>
+  <si>
+    <t>AGUACATE INSUMO GR</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>-220</t>
+  </si>
+  <si>
+    <t>-1.100</t>
+  </si>
+  <si>
+    <t>MR TEA LIMON</t>
+  </si>
+  <si>
+    <t>-6.249</t>
+  </si>
+  <si>
+    <t>-10.500</t>
+  </si>
+  <si>
+    <t>HIT NARANJA PIÑA</t>
+  </si>
+  <si>
+    <t>8.049</t>
+  </si>
+  <si>
+    <t>10.500</t>
+  </si>
+  <si>
+    <t>AJO INSUMO GR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>-362</t>
+  </si>
+  <si>
+    <t>-36.200</t>
+  </si>
+  <si>
+    <t>CASERO GUANABANA</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-21.324</t>
+  </si>
+  <si>
+    <t>-32.400</t>
+  </si>
+  <si>
+    <t>NARANJA INSUMO UND</t>
+  </si>
+  <si>
+    <t>2661</t>
+  </si>
+  <si>
+    <t>2657</t>
+  </si>
+  <si>
+    <t>2.657.000</t>
+  </si>
+  <si>
+    <t>BOLSA DE TE UND</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>27.300</t>
+  </si>
+  <si>
+    <t>H20 MARACUYA</t>
+  </si>
+  <si>
+    <t>25.992</t>
+  </si>
+  <si>
+    <t>44.400</t>
+  </si>
+  <si>
+    <t>BANANO INSUMO UND</t>
+  </si>
+  <si>
+    <t>-890</t>
+  </si>
+  <si>
+    <t>-880</t>
+  </si>
+  <si>
+    <t>GATORADE ROJO</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>-59.800</t>
+  </si>
+  <si>
+    <t>-103.500</t>
+  </si>
+  <si>
+    <t>CHOKIS CHOCOBASE</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-8.309</t>
+  </si>
+  <si>
+    <t>-14.000</t>
+  </si>
+  <si>
+    <t>TORTA</t>
+  </si>
+  <si>
+    <t>MOSTAZA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>16.100</t>
+  </si>
+  <si>
+    <t>GATORADE MARACUYA</t>
+  </si>
+  <si>
+    <t>-7.800</t>
+  </si>
+  <si>
+    <t>PALOS DE QUESO</t>
+  </si>
+  <si>
+    <t>PAN ARTESANAL INSUMO UND</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>-10.400</t>
+  </si>
+  <si>
+    <t>MEZCLA FRANCESA INSUMO GR</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>5.800</t>
+  </si>
+  <si>
+    <t>PAN FOCACCIA INSUMO UND</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>QUESO ASADO INSUMO GR</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>-190</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>QUESO CUAJADA INSUMO GR</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>-25.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA INSUMO GR</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>-1800</t>
+  </si>
+  <si>
+    <t>-12.600</t>
+  </si>
+  <si>
+    <t>QUESO MOZZA UNIDAD INSUMO</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>63.000</t>
+  </si>
+  <si>
+    <t>SALSA DE TOMATE  INSUMO GR</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>4.920</t>
+  </si>
+  <si>
+    <t>MAYONESA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>7560</t>
+  </si>
+  <si>
+    <t>-3760</t>
+  </si>
+  <si>
+    <t>-112.800</t>
+  </si>
+  <si>
+    <t>FRUTOS AMARILLO GR</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>70.160</t>
+  </si>
+  <si>
+    <t>HOGAO INSUMO GR</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>32.060</t>
+  </si>
+  <si>
+    <t>PROTEINA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>3.688.000</t>
+  </si>
+  <si>
+    <t>PATACONES INSUMO UND</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>42.500</t>
+  </si>
+  <si>
+    <t>PEPINILLOS DULCES GR</t>
+  </si>
+  <si>
+    <t>4619</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>53.872</t>
+  </si>
+  <si>
+    <t>DEDOS DE QUESO INSUMO UND</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>39.100</t>
+  </si>
+  <si>
+    <t>FRUTOS ROJOS INSUMO GR</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>3354</t>
+  </si>
+  <si>
+    <t>167.700</t>
+  </si>
+  <si>
+    <t>HUEVOS INSUMO UND</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>SALSA CEVICHE DE CHICHARRON</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>-754</t>
+  </si>
+  <si>
+    <t>-1.508.000</t>
+  </si>
+  <si>
+    <t>PALA HEAD ZEPHYR 2023</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>18.500.000</t>
+  </si>
+  <si>
+    <t>38.850.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA DE MANI INSUMO GR</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>3183</t>
+  </si>
+  <si>
+    <t>-1715</t>
+  </si>
+  <si>
+    <t>-68.600</t>
+  </si>
+  <si>
+    <t>YOGURT GRIEGO ML</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>4550</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>-6.600</t>
+  </si>
+  <si>
+    <t>-13.200</t>
+  </si>
+  <si>
+    <t>QUESO MOZARELLA INSUMO</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>-129</t>
+  </si>
+  <si>
+    <t>-193.500</t>
+  </si>
+  <si>
+    <t>SAL INSUMO GR</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>15.150</t>
+  </si>
+  <si>
+    <t>QUESO PARMESANO INSUMO GR</t>
+  </si>
+  <si>
+    <t>4560</t>
+  </si>
+  <si>
+    <t>4365</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>MANGO INSUMO GR</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1.045.000</t>
+  </si>
+  <si>
+    <t>SALSA ROSADA</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>-374</t>
+  </si>
+  <si>
+    <t>-374.000</t>
+  </si>
+  <si>
+    <t>PESTO INSUMO GR</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>7.700</t>
+  </si>
+  <si>
+    <t>QUESO DIBUFFALA INSUMO UND</t>
+  </si>
+  <si>
+    <t>TOMATES CHERRY INSUMO GR</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>18.900</t>
+  </si>
+  <si>
+    <t>VINAGRA BALSAMICO INSUMO GR</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>122.000</t>
+  </si>
+  <si>
     <t>ZUMO DE LIMON INSUMO ML</t>
   </si>
   <si>
-    <t>7020</t>
-  </si>
-  <si>
-    <t>6619</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>4010</t>
-  </si>
-  <si>
-    <t>200500</t>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>5319</t>
+  </si>
+  <si>
+    <t>3181</t>
+  </si>
+  <si>
+    <t>31.810</t>
+  </si>
+  <si>
+    <t>1.590.500</t>
+  </si>
+  <si>
+    <t>TAMARINDO INSUMO UND</t>
+  </si>
+  <si>
+    <t>KIWI INSUMO UND</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>VINAGRETA DE CILANTRO INSUMO GR</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>-306</t>
+  </si>
+  <si>
+    <t>-15.300</t>
+  </si>
+  <si>
+    <t>POLLO INSUMO GR</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>-7269</t>
+  </si>
+  <si>
+    <t>-145.380</t>
+  </si>
+  <si>
+    <t>VAINILLA INSUMO ML</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>-180</t>
+  </si>
+  <si>
+    <t>-3.060</t>
+  </si>
+  <si>
+    <t>PAPA RUSTICA INSUMO GR</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>-8828</t>
+  </si>
+  <si>
+    <t>-132.420</t>
+  </si>
+  <si>
+    <t>PIÑA INSUMO GR</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>-202</t>
+  </si>
+  <si>
+    <t>-2.020</t>
+  </si>
+  <si>
+    <t>PIMENTON INSUMO GR</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>7.770</t>
   </si>
   <si>
     <t>TOMATE INSUMO GR</t>
   </si>
   <si>
-    <t>1670</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>61588</t>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>379.908</t>
+  </si>
+  <si>
+    <t>CHEESE TRIS 42G</t>
+  </si>
+  <si>
+    <t>5.240</t>
+  </si>
+  <si>
+    <t>DETODITO NATURAL 45G</t>
+  </si>
+  <si>
+    <t>10.235</t>
+  </si>
+  <si>
+    <t>17.500</t>
+  </si>
+  <si>
+    <t>AGUA CON GAS</t>
+  </si>
+  <si>
+    <t>16.660</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>DETODITO FLAMING HOT</t>
+  </si>
+  <si>
+    <t>MANI MOTO MEZC NUEC</t>
+  </si>
+  <si>
+    <t>3.800</t>
   </si>
   <si>
     <t>TOCINETA INSUMO UND</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3600</t>
+    <t>137</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>-27.600</t>
+  </si>
+  <si>
+    <t>CHEETOS NATURALES 40G</t>
+  </si>
+  <si>
+    <t>1.310</t>
+  </si>
+  <si>
+    <t>2.500</t>
+  </si>
+  <si>
+    <t>DORITOS MEGAQUESO 185G</t>
+  </si>
+  <si>
+    <t>-12.888</t>
+  </si>
+  <si>
+    <t>-17.000</t>
+  </si>
+  <si>
+    <t>MARGARITA CEBOLLA 30G</t>
+  </si>
+  <si>
+    <t>8.190</t>
+  </si>
+  <si>
+    <t>CHOCLITOS 45G</t>
+  </si>
+  <si>
+    <t>3.927</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>MARGARITA BBQ 30G</t>
+  </si>
+  <si>
+    <t>-4.914</t>
+  </si>
+  <si>
+    <t>NATUCHIPS VERDES 38G</t>
+  </si>
+  <si>
+    <t>4.914</t>
+  </si>
+  <si>
+    <t>DORITOS DINAMITA LIMON</t>
+  </si>
+  <si>
+    <t>8.620</t>
+  </si>
+  <si>
+    <t>14.000</t>
+  </si>
+  <si>
+    <t>MARGARITA LIMON 105G</t>
+  </si>
+  <si>
+    <t>-5.283</t>
+  </si>
+  <si>
+    <t>-8.000</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADA MAYONESA 37G</t>
+  </si>
+  <si>
+    <t>1.638</t>
+  </si>
+  <si>
+    <t>MARGARITA NATURAL 105G</t>
+  </si>
+  <si>
+    <t>-21.132</t>
+  </si>
+  <si>
+    <t>-32.000</t>
+  </si>
+  <si>
+    <t>MARGARITA NATURAL 30G</t>
+  </si>
+  <si>
+    <t>6.552</t>
+  </si>
+  <si>
+    <t>DETODITO MIX 45G</t>
+  </si>
+  <si>
+    <t>4.094</t>
+  </si>
+  <si>
+    <t>DORITOS 43G</t>
+  </si>
+  <si>
+    <t>-3.604</t>
+  </si>
+  <si>
+    <t>MANIMOTO NAKED SAL</t>
+  </si>
+  <si>
+    <t>8.722</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADAS TOMATE</t>
+  </si>
+  <si>
+    <t>MARGARITA POLLO 105G</t>
+  </si>
+  <si>
+    <t>-10.566</t>
+  </si>
+  <si>
+    <t>GRIP HEAD</t>
+  </si>
+  <si>
+    <t>-105.000</t>
+  </si>
+  <si>
+    <t>-225.000</t>
+  </si>
+  <si>
+    <t>MARGARITA RECETA CLASICA ALITAS</t>
+  </si>
+  <si>
+    <t>-18.840</t>
+  </si>
+  <si>
+    <t>-25.500</t>
+  </si>
+  <si>
+    <t>DETODITO BBQ150G</t>
+  </si>
+  <si>
+    <t>-124.010</t>
+  </si>
+  <si>
+    <t>GRIP WILSON</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>DETODITO LIMON 150G</t>
+  </si>
+  <si>
+    <t>ALQUILER PALA</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>522.000</t>
+  </si>
+  <si>
+    <t>3.915.000</t>
+  </si>
+  <si>
+    <t>NATUCHIPS MADUROS 38G</t>
+  </si>
+  <si>
+    <t>COLA Y POLA</t>
+  </si>
+  <si>
+    <t>DETODITO BBQ 45G</t>
+  </si>
+  <si>
+    <t>-6.141</t>
+  </si>
+  <si>
+    <t>MARGARITA POLLO 30G</t>
+  </si>
+  <si>
+    <t>9.828</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>NATUCHIPS VERDES 135G</t>
+  </si>
+  <si>
+    <t>-11.272</t>
+  </si>
+  <si>
+    <t>SALSA VERDE INSUMO GR</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>-336</t>
+  </si>
+  <si>
+    <t>-168.000</t>
+  </si>
+  <si>
+    <t>MARGARITA RECETA CLASICA SAL</t>
+  </si>
+  <si>
+    <t>12.560</t>
+  </si>
+  <si>
+    <t>17.000</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADAS MAYONESA</t>
+  </si>
+  <si>
+    <t>5.283</t>
+  </si>
+  <si>
+    <t>CHEETOS BOLIQUESO</t>
+  </si>
+  <si>
+    <t>6.550</t>
+  </si>
+  <si>
+    <t>12.500</t>
+  </si>
+  <si>
+    <t>SALCHICHA RANCHERA INSUMO UND</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>CORONA INSUMO</t>
+  </si>
+  <si>
+    <t>BRETAÑA</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>72.905</t>
+  </si>
+  <si>
+    <t>DORITOS DINAMITA FLAMING HOT</t>
+  </si>
+  <si>
+    <t>-6.465</t>
+  </si>
+  <si>
+    <t>DETODITO LIMON 45G</t>
+  </si>
+  <si>
+    <t>6.141</t>
+  </si>
+  <si>
+    <t>CASERO MORA</t>
+  </si>
+  <si>
+    <t>30.209</t>
+  </si>
+  <si>
+    <t>45.900</t>
+  </si>
+  <si>
+    <t>CHOCLITOS 210G</t>
+  </si>
+  <si>
+    <t>-11.774</t>
+  </si>
+  <si>
+    <t>MARGARITA LIMON 30G</t>
+  </si>
+  <si>
+    <t>NATUCHIPS MADUROS 135G</t>
+  </si>
+  <si>
+    <t>11.272</t>
+  </si>
+  <si>
+    <t>GUDIZ 28G</t>
+  </si>
+  <si>
+    <t>4.505</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADA TOMATE 37G</t>
+  </si>
+  <si>
+    <t>AGUILA LIGHT LATA</t>
+  </si>
+  <si>
+    <t>POLET</t>
+  </si>
+  <si>
+    <t>12.300</t>
+  </si>
+  <si>
+    <t>DETODITO MIX 150G</t>
+  </si>
+  <si>
+    <t>-12.400</t>
+  </si>
+  <si>
+    <t>DETODITO NATURAL 150G</t>
+  </si>
+  <si>
+    <t>-6.200</t>
+  </si>
+  <si>
+    <t>-8.500</t>
+  </si>
+  <si>
+    <t>SALSA PEPINILLO DULCE INSUMO GR</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>4775</t>
+  </si>
+  <si>
+    <t>143.250</t>
+  </si>
+  <si>
+    <t>POKER LATON INSUMO</t>
+  </si>
+  <si>
+    <t>CARNE DE HAMBURGUESA UND</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-85.000</t>
   </si>
   <si>
     <t>TARRO BOLAS HEAD PADEL PRO</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>84000</t>
-  </si>
-  <si>
-    <t>135000</t>
-  </si>
-  <si>
-    <t>SALSA PEPINILLO DULCE INSUMO GR</t>
-  </si>
-  <si>
-    <t>2695</t>
-  </si>
-  <si>
-    <t>2585</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>3300</t>
+    <t>588.000</t>
+  </si>
+  <si>
+    <t>945.000</t>
+  </si>
+  <si>
+    <t>CILANTRO INSUMO GR</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-210</t>
+  </si>
+  <si>
+    <t>AGUILA LIGHT LATÓN</t>
+  </si>
+  <si>
+    <t>59.493</t>
+  </si>
+  <si>
+    <t>115.500</t>
+  </si>
+  <si>
+    <t>PIMIENTA INSUMO GR</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>-26.400</t>
   </si>
   <si>
     <t>SALSA HOLANDESA GR</t>
   </si>
   <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>SALCHICHA RANCHERA INSUMO UND</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>SAL INSUMO GR</t>
-  </si>
-  <si>
-    <t>1970</t>
+    <t>786</t>
+  </si>
+  <si>
+    <t>-186</t>
+  </si>
+  <si>
+    <t>-9.300</t>
+  </si>
+  <si>
+    <t>APIO INSUMO GR</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>-140</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>4.130</t>
+  </si>
+  <si>
+    <t>PANCAKES UND</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-30.600</t>
+  </si>
+  <si>
+    <t>HELADO ARTESANAL TRES LECHES</t>
+  </si>
+  <si>
+    <t>35.820</t>
+  </si>
+  <si>
+    <t>ACEITE INSUMO</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>CLUB COLOMBIA LATA INSUMO</t>
+  </si>
+  <si>
+    <t>5.600</t>
+  </si>
+  <si>
+    <t>CHOCOCONO</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>QUESO MOZZA UNIDAD INSUMO</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>QUESO CUAJADA INSUMO GR</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>PROTEINA INSUMO GR</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>POLLO INSUMO GR</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>PIÑA INSUMO GR</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>PIMIENTA INSUMO GR</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>PIMENTON INSUMO GR</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>PAPA RUSTICA INSUMO GR</t>
-  </si>
-  <si>
-    <t>8608</t>
-  </si>
-  <si>
-    <t>8128</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>PAN BRIOCHE INSUMO UND</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>PAN ARTESANAL INSUMO UND</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>NARANJA INSUMO UND</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>MIX DE VERDE INSUMO GR</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>MILO INSUMO GR</t>
-  </si>
-  <si>
-    <t>3890</t>
-  </si>
-  <si>
-    <t>3850</t>
-  </si>
-  <si>
-    <t>MARGARITA RECETA CLASICA SAL</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6280</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>MARGARITA POLLO 30G</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1638</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>MARGARITA ONDULADA TOMATE 37G</t>
-  </si>
-  <si>
-    <t>3276</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>MARGARITA CEBOLLA 30G</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA INSUMO GR</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA DE AJO INSUMO GR</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>MANI MOTO MEZC NUEC</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>LECHE INSUMO ML</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>13250</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>LECHE DE ALMENDRAS INSUMO ML</t>
-  </si>
-  <si>
-    <t>14436</t>
-  </si>
-  <si>
-    <t>14166</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>2430</t>
-  </si>
-  <si>
-    <t>HUEVOS INSUMO UND</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>HELADOS CREMA</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>GATORADE SIN AZUCAR</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>GATORADE ROJO</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>7800</t>
-  </si>
-  <si>
-    <t>GATORADE MARACUYA</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>22500</t>
-  </si>
-  <si>
-    <t>GATORADE MANDARINA</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>GATORADE AZUL</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>GASEOSA UVA 400</t>
-  </si>
-  <si>
-    <t>3332</t>
-  </si>
-  <si>
-    <t>GASEOSA PEPSI 400</t>
-  </si>
-  <si>
-    <t>1666</t>
-  </si>
-  <si>
-    <t>GALLETAS SWEET BAKERY</t>
-  </si>
-  <si>
-    <t>FRUTOS ROJOS INSUMO GR</t>
-  </si>
-  <si>
-    <t>1316</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>DORITOS DINAMITA LIMON</t>
-  </si>
-  <si>
-    <t>2155</t>
-  </si>
-  <si>
-    <t>CHOKIS BOLITA</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>CHOKIS BLACK</t>
-  </si>
-  <si>
-    <t>CHOCOCONO</t>
-  </si>
-  <si>
-    <t>2420</t>
-  </si>
-  <si>
-    <t>CHOCLITOS 45G</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2618</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>CHEETOS BOLIQUESO</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>CEBOLLA MORADA INSUMO GR</t>
-  </si>
-  <si>
-    <t>2190</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>CEBOLLA LARGA INSUMO GR</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>CASERO MORA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3554</t>
-  </si>
-  <si>
-    <t>5400</t>
-  </si>
-  <si>
-    <t>CASERO COCO</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>CARNE DE HAMBURGUESA UND</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>CAFE INSUMO GR</t>
-  </si>
-  <si>
-    <t>3348</t>
-  </si>
-  <si>
-    <t>3018</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>21120</t>
-  </si>
-  <si>
-    <t>BROWNIE NUAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRETAÑA INSUMO </t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>BOCADILLO UND</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>BANANO INSUMO UND</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>AREPA INSUMO UND</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>ALQUILER PALA</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>AGUILA ORIGINAL LATON INSUMO</t>
-  </si>
-  <si>
-    <t>2833</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT LATÓN</t>
-  </si>
-  <si>
-    <t>11332</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>AGUA LITRO</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17592</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>AGUA 600</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8330</t>
-  </si>
-  <si>
-    <t>20000</t>
+    <t>-48.400</t>
+  </si>
+  <si>
+    <t>-70.000</t>
+  </si>
+  <si>
+    <t>ALMENDRA INSUMO GR</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>CANELA INSUMO GR</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +2574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A7" sqref="A7:G7"/>
@@ -1213,7 +2656,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1236,7 +2679,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1259,7 +2702,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1282,7 +2725,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1294,1025 +2737,1025 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
       </c>
       <c r="F34" t="s">
         <v>126</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>67</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>93</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2320,160 +3763,160 @@
         <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G58" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G62" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2481,45 +3924,45 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="F63" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2527,137 +3970,3541 @@
         <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
+        <v>274</v>
+      </c>
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" t="s">
+        <v>271</v>
+      </c>
+      <c r="E73" t="s">
+        <v>272</v>
+      </c>
+      <c r="F73" t="s">
+        <v>273</v>
+      </c>
+      <c r="G73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
+        <v>276</v>
+      </c>
+      <c r="G74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" t="s">
+        <v>279</v>
+      </c>
+      <c r="G75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>282</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>283</v>
+      </c>
+      <c r="G76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B78" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>299</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" t="s">
+        <v>300</v>
+      </c>
+      <c r="G82" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>291</v>
+      </c>
+      <c r="B83" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>290</v>
+      </c>
+      <c r="B84" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>305</v>
+      </c>
+      <c r="E84" t="s">
+        <v>306</v>
+      </c>
+      <c r="F84" t="s">
+        <v>307</v>
+      </c>
+      <c r="G84" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" t="s">
+        <v>312</v>
+      </c>
+      <c r="G86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>315</v>
+      </c>
+      <c r="G87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" t="s">
+        <v>318</v>
+      </c>
+      <c r="E88" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88" t="s">
+        <v>320</v>
+      </c>
+      <c r="G88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>69</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" t="s">
+        <v>300</v>
+      </c>
+      <c r="G95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>164</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>338</v>
+      </c>
+      <c r="E96" t="s">
+        <v>339</v>
+      </c>
+      <c r="F96" t="s">
+        <v>340</v>
+      </c>
+      <c r="G96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F98" t="s">
+        <v>345</v>
+      </c>
+      <c r="G98" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>165</v>
+      </c>
+      <c r="B99" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99" t="s">
+        <v>349</v>
+      </c>
+      <c r="E99" t="s">
+        <v>350</v>
+      </c>
+      <c r="F99" t="s">
+        <v>351</v>
+      </c>
+      <c r="G99" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>265</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" t="s">
+        <v>354</v>
+      </c>
+      <c r="F100" t="s">
+        <v>355</v>
+      </c>
+      <c r="G100" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>221</v>
+      </c>
+      <c r="B101" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" t="s">
+        <v>360</v>
+      </c>
+      <c r="G101" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>174</v>
+      </c>
+      <c r="B102" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" t="s">
+        <v>363</v>
+      </c>
+      <c r="G102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>324</v>
+      </c>
+      <c r="F103" t="s">
+        <v>365</v>
+      </c>
+      <c r="G103" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>173</v>
+      </c>
+      <c r="B104" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" t="s">
+        <v>371</v>
+      </c>
+      <c r="F105" t="s">
+        <v>372</v>
+      </c>
+      <c r="G105" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>94</v>
+      </c>
+      <c r="B106" t="s">
+        <v>374</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" t="s">
+        <v>375</v>
+      </c>
+      <c r="F106" t="s">
+        <v>376</v>
+      </c>
+      <c r="G106" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>378</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>280</v>
+      </c>
+      <c r="G107" t="s">
         <v>238</v>
       </c>
-      <c r="D70" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>220</v>
+      </c>
+      <c r="B108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" t="s">
+        <v>381</v>
+      </c>
+      <c r="F108" t="s">
+        <v>382</v>
+      </c>
+      <c r="G108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>68</v>
+      </c>
+      <c r="B109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" t="s">
+        <v>384</v>
+      </c>
+      <c r="G109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>346</v>
+      </c>
+      <c r="B110" t="s">
+        <v>385</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" t="s">
+        <v>387</v>
+      </c>
+      <c r="E111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F111" t="s">
+        <v>389</v>
+      </c>
+      <c r="G111" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" t="s">
+        <v>392</v>
+      </c>
+      <c r="E112" t="s">
+        <v>393</v>
+      </c>
+      <c r="F112" t="s">
+        <v>394</v>
+      </c>
+      <c r="G112" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>395</v>
+      </c>
+      <c r="C113" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" t="s">
+        <v>396</v>
+      </c>
+      <c r="G113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
         <v>240</v>
       </c>
-      <c r="F70" t="s">
+      <c r="B114" t="s">
+        <v>397</v>
+      </c>
+      <c r="C114" t="s">
+        <v>398</v>
+      </c>
+      <c r="D114" t="s">
+        <v>399</v>
+      </c>
+      <c r="E114" t="s">
+        <v>400</v>
+      </c>
+      <c r="F114" t="s">
+        <v>401</v>
+      </c>
+      <c r="G114" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
         <v>241</v>
       </c>
-      <c r="G70" t="s">
+      <c r="B115" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" t="s">
+        <v>404</v>
+      </c>
+      <c r="F115" t="s">
+        <v>405</v>
+      </c>
+      <c r="G115" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>406</v>
+      </c>
+      <c r="C116" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" t="s">
+        <v>408</v>
+      </c>
+      <c r="F116" t="s">
+        <v>409</v>
+      </c>
+      <c r="G116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>243</v>
+      </c>
+      <c r="B117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" t="s">
         <v>242</v>
+      </c>
+      <c r="E117" t="s">
+        <v>412</v>
+      </c>
+      <c r="F117" t="s">
+        <v>413</v>
+      </c>
+      <c r="G117" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>247</v>
+      </c>
+      <c r="B118" t="s">
+        <v>414</v>
+      </c>
+      <c r="C118" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" t="s">
+        <v>416</v>
+      </c>
+      <c r="E118" t="s">
+        <v>417</v>
+      </c>
+      <c r="F118" t="s">
+        <v>418</v>
+      </c>
+      <c r="G118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>214</v>
+      </c>
+      <c r="B119" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" t="s">
+        <v>420</v>
+      </c>
+      <c r="D119" t="s">
+        <v>421</v>
+      </c>
+      <c r="E119" t="s">
+        <v>422</v>
+      </c>
+      <c r="F119" t="s">
+        <v>423</v>
+      </c>
+      <c r="G119" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>193</v>
+      </c>
+      <c r="B120" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" t="s">
+        <v>426</v>
+      </c>
+      <c r="E120" t="s">
+        <v>427</v>
+      </c>
+      <c r="F120" t="s">
+        <v>428</v>
+      </c>
+      <c r="G120" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>429</v>
+      </c>
+      <c r="C121" t="s">
+        <v>430</v>
+      </c>
+      <c r="D121" t="s">
+        <v>431</v>
+      </c>
+      <c r="E121" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" t="s">
+        <v>433</v>
+      </c>
+      <c r="G121" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>318</v>
+      </c>
+      <c r="B122" t="s">
+        <v>434</v>
+      </c>
+      <c r="C122" t="s">
+        <v>435</v>
+      </c>
+      <c r="D122" t="s">
+        <v>436</v>
+      </c>
+      <c r="E122" t="s">
+        <v>437</v>
+      </c>
+      <c r="F122" t="s">
+        <v>438</v>
+      </c>
+      <c r="G122" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>439</v>
+      </c>
+      <c r="C123" t="s">
+        <v>440</v>
+      </c>
+      <c r="D123" t="s">
+        <v>140</v>
+      </c>
+      <c r="E123" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" t="s">
+        <v>442</v>
+      </c>
+      <c r="G123" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>231</v>
+      </c>
+      <c r="B124" t="s">
+        <v>443</v>
+      </c>
+      <c r="C124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D124" t="s">
+        <v>445</v>
+      </c>
+      <c r="E124" t="s">
+        <v>446</v>
+      </c>
+      <c r="F124" t="s">
+        <v>447</v>
+      </c>
+      <c r="G124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>188</v>
+      </c>
+      <c r="B125" t="s">
+        <v>448</v>
+      </c>
+      <c r="C125" t="s">
+        <v>449</v>
+      </c>
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" t="s">
+        <v>353</v>
+      </c>
+      <c r="F125" t="s">
+        <v>450</v>
+      </c>
+      <c r="G125" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>194</v>
+      </c>
+      <c r="B126" t="s">
+        <v>451</v>
+      </c>
+      <c r="C126" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" t="s">
+        <v>453</v>
+      </c>
+      <c r="E126" t="s">
+        <v>454</v>
+      </c>
+      <c r="F126" t="s">
+        <v>455</v>
+      </c>
+      <c r="G126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>456</v>
+      </c>
+      <c r="C127" t="s">
+        <v>457</v>
+      </c>
+      <c r="D127" t="s">
+        <v>458</v>
+      </c>
+      <c r="E127" t="s">
+        <v>459</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>325</v>
+      </c>
+      <c r="B128" t="s">
+        <v>460</v>
+      </c>
+      <c r="C128" t="s">
+        <v>461</v>
+      </c>
+      <c r="D128" t="s">
+        <v>462</v>
+      </c>
+      <c r="E128" t="s">
+        <v>463</v>
+      </c>
+      <c r="F128" t="s">
+        <v>464</v>
+      </c>
+      <c r="G128" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>465</v>
+      </c>
+      <c r="C129" t="s">
+        <v>466</v>
+      </c>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>466</v>
+      </c>
+      <c r="F129" t="s">
+        <v>467</v>
+      </c>
+      <c r="G129" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>212</v>
+      </c>
+      <c r="B130" t="s">
+        <v>469</v>
+      </c>
+      <c r="C130" t="s">
+        <v>470</v>
+      </c>
+      <c r="D130" t="s">
+        <v>471</v>
+      </c>
+      <c r="E130" t="s">
+        <v>472</v>
+      </c>
+      <c r="F130" t="s">
+        <v>473</v>
+      </c>
+      <c r="G130" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>308</v>
+      </c>
+      <c r="B131" t="s">
+        <v>474</v>
+      </c>
+      <c r="C131" t="s">
+        <v>475</v>
+      </c>
+      <c r="D131" t="s">
+        <v>476</v>
+      </c>
+      <c r="E131" t="s">
+        <v>477</v>
+      </c>
+      <c r="F131" t="s">
+        <v>478</v>
+      </c>
+      <c r="G131" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132" t="s">
+        <v>481</v>
+      </c>
+      <c r="E132" t="s">
+        <v>482</v>
+      </c>
+      <c r="F132" t="s">
+        <v>483</v>
+      </c>
+      <c r="G132" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D133" t="s">
+        <v>485</v>
+      </c>
+      <c r="E133" t="s">
+        <v>486</v>
+      </c>
+      <c r="F133" t="s">
+        <v>487</v>
+      </c>
+      <c r="G133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" t="s">
+        <v>489</v>
+      </c>
+      <c r="D134" t="s">
+        <v>490</v>
+      </c>
+      <c r="E134" t="s">
+        <v>491</v>
+      </c>
+      <c r="F134" t="s">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>208</v>
+      </c>
+      <c r="B135" t="s">
+        <v>492</v>
+      </c>
+      <c r="C135" t="s">
+        <v>493</v>
+      </c>
+      <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" t="s">
+        <v>493</v>
+      </c>
+      <c r="F135" t="s">
+        <v>494</v>
+      </c>
+      <c r="G135" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>344</v>
+      </c>
+      <c r="B136" t="s">
+        <v>495</v>
+      </c>
+      <c r="C136" t="s">
+        <v>496</v>
+      </c>
+      <c r="D136" t="s">
+        <v>497</v>
+      </c>
+      <c r="E136" t="s">
+        <v>498</v>
+      </c>
+      <c r="F136" t="s">
+        <v>499</v>
+      </c>
+      <c r="G136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" t="s">
+        <v>493</v>
+      </c>
+      <c r="D137" t="s">
+        <v>501</v>
+      </c>
+      <c r="E137" t="s">
+        <v>411</v>
+      </c>
+      <c r="F137" t="s">
+        <v>502</v>
+      </c>
+      <c r="G137" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>242</v>
+      </c>
+      <c r="B138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C138" t="s">
+        <v>296</v>
+      </c>
+      <c r="D138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E138" t="s">
+        <v>236</v>
+      </c>
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>254</v>
+      </c>
+      <c r="B139" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" t="s">
+        <v>505</v>
+      </c>
+      <c r="E139" t="s">
+        <v>506</v>
+      </c>
+      <c r="F139" t="s">
+        <v>507</v>
+      </c>
+      <c r="G139" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
+        <v>508</v>
+      </c>
+      <c r="C140" t="s">
+        <v>509</v>
+      </c>
+      <c r="D140" t="s">
+        <v>407</v>
+      </c>
+      <c r="E140" t="s">
+        <v>510</v>
+      </c>
+      <c r="F140" t="s">
+        <v>511</v>
+      </c>
+      <c r="G140" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>207</v>
+      </c>
+      <c r="B141" t="s">
+        <v>512</v>
+      </c>
+      <c r="C141" t="s">
+        <v>513</v>
+      </c>
+      <c r="D141" t="s">
+        <v>514</v>
+      </c>
+      <c r="E141" t="s">
+        <v>515</v>
+      </c>
+      <c r="F141" t="s">
+        <v>516</v>
+      </c>
+      <c r="G141" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
+        <v>518</v>
+      </c>
+      <c r="C142" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142" t="s">
+        <v>297</v>
+      </c>
+      <c r="G142" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>204</v>
+      </c>
+      <c r="B143" t="s">
+        <v>519</v>
+      </c>
+      <c r="C143" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" t="s">
+        <v>520</v>
+      </c>
+      <c r="G143" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>521</v>
+      </c>
+      <c r="C144" t="s">
+        <v>403</v>
+      </c>
+      <c r="D144" t="s">
+        <v>522</v>
+      </c>
+      <c r="E144" t="s">
+        <v>523</v>
+      </c>
+      <c r="F144" t="s">
+        <v>524</v>
+      </c>
+      <c r="G144" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>236</v>
+      </c>
+      <c r="B145" t="s">
+        <v>525</v>
+      </c>
+      <c r="C145" t="s">
+        <v>124</v>
+      </c>
+      <c r="D145" t="s">
+        <v>526</v>
+      </c>
+      <c r="E145" t="s">
+        <v>527</v>
+      </c>
+      <c r="F145" t="s">
+        <v>528</v>
+      </c>
+      <c r="G145" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>255</v>
+      </c>
+      <c r="B146" t="s">
+        <v>529</v>
+      </c>
+      <c r="C146" t="s">
+        <v>530</v>
+      </c>
+      <c r="D146" t="s">
+        <v>531</v>
+      </c>
+      <c r="E146" t="s">
+        <v>532</v>
+      </c>
+      <c r="F146" t="s">
+        <v>533</v>
+      </c>
+      <c r="G146" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>229</v>
+      </c>
+      <c r="B147" t="s">
+        <v>534</v>
+      </c>
+      <c r="C147" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" t="s">
+        <v>535</v>
+      </c>
+      <c r="E147" t="s">
+        <v>536</v>
+      </c>
+      <c r="F147" t="s">
+        <v>537</v>
+      </c>
+      <c r="G147" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>235</v>
+      </c>
+      <c r="B148" t="s">
+        <v>538</v>
+      </c>
+      <c r="C148" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" t="s">
+        <v>539</v>
+      </c>
+      <c r="E148" t="s">
+        <v>540</v>
+      </c>
+      <c r="F148" t="s">
+        <v>541</v>
+      </c>
+      <c r="G148" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>233</v>
+      </c>
+      <c r="B149" t="s">
+        <v>542</v>
+      </c>
+      <c r="C149" t="s">
+        <v>543</v>
+      </c>
+      <c r="D149" t="s">
+        <v>544</v>
+      </c>
+      <c r="E149" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149" t="s">
+        <v>545</v>
+      </c>
+      <c r="G149" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>252</v>
+      </c>
+      <c r="B150" t="s">
+        <v>546</v>
+      </c>
+      <c r="C150" t="s">
+        <v>547</v>
+      </c>
+      <c r="D150" t="s">
+        <v>548</v>
+      </c>
+      <c r="E150" t="s">
+        <v>549</v>
+      </c>
+      <c r="F150" t="s">
+        <v>550</v>
+      </c>
+      <c r="G150" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>551</v>
+      </c>
+      <c r="C151" t="s">
+        <v>272</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F151" t="s">
+        <v>552</v>
+      </c>
+      <c r="G151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>124</v>
+      </c>
+      <c r="B152" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" t="s">
+        <v>236</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>554</v>
+      </c>
+      <c r="G152" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>81</v>
+      </c>
+      <c r="B153" t="s">
+        <v>556</v>
+      </c>
+      <c r="C153" t="s">
+        <v>236</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" t="s">
+        <v>236</v>
+      </c>
+      <c r="F153" t="s">
+        <v>557</v>
+      </c>
+      <c r="G153" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>128</v>
+      </c>
+      <c r="B154" t="s">
+        <v>559</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>554</v>
+      </c>
+      <c r="G154" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s">
+        <v>560</v>
+      </c>
+      <c r="C155" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" t="s">
+        <v>328</v>
+      </c>
+      <c r="E155" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" t="s">
+        <v>561</v>
+      </c>
+      <c r="G155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>251</v>
+      </c>
+      <c r="B156" t="s">
+        <v>562</v>
+      </c>
+      <c r="C156" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" t="s">
+        <v>563</v>
+      </c>
+      <c r="E156" t="s">
+        <v>564</v>
+      </c>
+      <c r="F156" t="s">
+        <v>565</v>
+      </c>
+      <c r="G156" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>566</v>
+      </c>
+      <c r="C157" t="s">
+        <v>271</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" t="s">
+        <v>567</v>
+      </c>
+      <c r="G157" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>135</v>
+      </c>
+      <c r="B158" t="s">
+        <v>569</v>
+      </c>
+      <c r="C158" t="s">
+        <v>134</v>
+      </c>
+      <c r="D158" t="s">
+        <v>271</v>
+      </c>
+      <c r="E158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" t="s">
+        <v>570</v>
+      </c>
+      <c r="G158" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>144</v>
+      </c>
+      <c r="B159" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>573</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>134</v>
+      </c>
+      <c r="B160" t="s">
+        <v>574</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" t="s">
+        <v>176</v>
+      </c>
+      <c r="F160" t="s">
+        <v>575</v>
+      </c>
+      <c r="G160" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>143</v>
+      </c>
+      <c r="B161" t="s">
+        <v>577</v>
+      </c>
+      <c r="C161" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161" t="s">
+        <v>271</v>
+      </c>
+      <c r="E161" t="s">
+        <v>144</v>
+      </c>
+      <c r="F161" t="s">
+        <v>578</v>
+      </c>
+      <c r="G161" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>131</v>
+      </c>
+      <c r="B162" t="s">
+        <v>579</v>
+      </c>
+      <c r="C162" t="s">
+        <v>271</v>
+      </c>
+      <c r="D162" t="s">
+        <v>176</v>
+      </c>
+      <c r="E162" t="s">
+        <v>176</v>
+      </c>
+      <c r="F162" t="s">
+        <v>580</v>
+      </c>
+      <c r="G162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>138</v>
+      </c>
+      <c r="B163" t="s">
+        <v>581</v>
+      </c>
+      <c r="C163" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" t="s">
+        <v>119</v>
+      </c>
+      <c r="E163" t="s">
+        <v>134</v>
+      </c>
+      <c r="F163" t="s">
+        <v>582</v>
+      </c>
+      <c r="G163" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>121</v>
+      </c>
+      <c r="B164" t="s">
+        <v>584</v>
+      </c>
+      <c r="C164" t="s">
+        <v>134</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>328</v>
+      </c>
+      <c r="F164" t="s">
+        <v>585</v>
+      </c>
+      <c r="G164" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>145</v>
+      </c>
+      <c r="B165" t="s">
+        <v>587</v>
+      </c>
+      <c r="C165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165" t="s">
+        <v>29</v>
+      </c>
+      <c r="F165" t="s">
+        <v>588</v>
+      </c>
+      <c r="G165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>122</v>
+      </c>
+      <c r="B166" t="s">
+        <v>589</v>
+      </c>
+      <c r="C166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166" t="s">
+        <v>189</v>
+      </c>
+      <c r="E166" t="s">
+        <v>190</v>
+      </c>
+      <c r="F166" t="s">
+        <v>590</v>
+      </c>
+      <c r="G166" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>141</v>
+      </c>
+      <c r="B167" t="s">
+        <v>592</v>
+      </c>
+      <c r="C167" t="s">
+        <v>271</v>
+      </c>
+      <c r="D167" t="s">
+        <v>119</v>
+      </c>
+      <c r="E167" t="s">
+        <v>134</v>
+      </c>
+      <c r="F167" t="s">
+        <v>593</v>
+      </c>
+      <c r="G167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>126</v>
+      </c>
+      <c r="B168" t="s">
+        <v>594</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>176</v>
+      </c>
+      <c r="E168" t="s">
+        <v>119</v>
+      </c>
+      <c r="F168" t="s">
+        <v>595</v>
+      </c>
+      <c r="G168" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>136</v>
+      </c>
+      <c r="B169" t="s">
+        <v>596</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" t="s">
+        <v>194</v>
+      </c>
+      <c r="F169" t="s">
+        <v>597</v>
+      </c>
+      <c r="G169" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>91</v>
+      </c>
+      <c r="B170" t="s">
+        <v>598</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" t="s">
+        <v>599</v>
+      </c>
+      <c r="G170" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>120</v>
+      </c>
+      <c r="B171" t="s">
+        <v>601</v>
+      </c>
+      <c r="C171" t="s">
+        <v>134</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>123</v>
+      </c>
+      <c r="B172" t="s">
+        <v>602</v>
+      </c>
+      <c r="C172" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172" t="s">
+        <v>271</v>
+      </c>
+      <c r="E172" t="s">
+        <v>194</v>
+      </c>
+      <c r="F172" t="s">
+        <v>603</v>
+      </c>
+      <c r="G172" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>161</v>
+      </c>
+      <c r="B173" t="s">
+        <v>604</v>
+      </c>
+      <c r="C173" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" t="s">
+        <v>249</v>
+      </c>
+      <c r="E173" t="s">
+        <v>125</v>
+      </c>
+      <c r="F173" t="s">
+        <v>605</v>
+      </c>
+      <c r="G173" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>117</v>
+      </c>
+      <c r="B174" t="s">
+        <v>607</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174" t="s">
+        <v>144</v>
+      </c>
+      <c r="F174" t="s">
+        <v>608</v>
+      </c>
+      <c r="G174" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>115</v>
+      </c>
+      <c r="B175" t="s">
+        <v>610</v>
+      </c>
+      <c r="C175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" t="s">
+        <v>194</v>
+      </c>
+      <c r="F175" t="s">
+        <v>611</v>
+      </c>
+      <c r="G175" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>151</v>
+      </c>
+      <c r="B176" t="s">
+        <v>612</v>
+      </c>
+      <c r="C176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" t="s">
+        <v>38</v>
+      </c>
+      <c r="E176" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" t="s">
+        <v>301</v>
+      </c>
+      <c r="G176" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>116</v>
+      </c>
+      <c r="B177" t="s">
+        <v>614</v>
+      </c>
+      <c r="C177" t="s">
+        <v>134</v>
+      </c>
+      <c r="D177" t="s">
+        <v>134</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>160</v>
+      </c>
+      <c r="B178" t="s">
+        <v>615</v>
+      </c>
+      <c r="C178" t="s">
+        <v>616</v>
+      </c>
+      <c r="D178" t="s">
+        <v>617</v>
+      </c>
+      <c r="E178" t="s">
+        <v>618</v>
+      </c>
+      <c r="F178" t="s">
+        <v>619</v>
+      </c>
+      <c r="G178" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>132</v>
+      </c>
+      <c r="B179" t="s">
+        <v>621</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>119</v>
+      </c>
+      <c r="E179" t="s">
+        <v>176</v>
+      </c>
+      <c r="F179" t="s">
+        <v>580</v>
+      </c>
+      <c r="G179" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>108</v>
+      </c>
+      <c r="B180" t="s">
+        <v>622</v>
+      </c>
+      <c r="C180" t="s">
+        <v>134</v>
+      </c>
+      <c r="D180" t="s">
+        <v>189</v>
+      </c>
+      <c r="E180" t="s">
+        <v>190</v>
+      </c>
+      <c r="F180" t="s">
+        <v>586</v>
+      </c>
+      <c r="G180" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>623</v>
+      </c>
+      <c r="C181" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" t="s">
+        <v>271</v>
+      </c>
+      <c r="E181" t="s">
+        <v>144</v>
+      </c>
+      <c r="F181" t="s">
+        <v>624</v>
+      </c>
+      <c r="G181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>142</v>
+      </c>
+      <c r="B182" t="s">
+        <v>625</v>
+      </c>
+      <c r="C182" t="s">
+        <v>236</v>
+      </c>
+      <c r="D182" t="s">
+        <v>134</v>
+      </c>
+      <c r="E182" t="s">
+        <v>271</v>
+      </c>
+      <c r="F182" t="s">
+        <v>626</v>
+      </c>
+      <c r="G182" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>130</v>
+      </c>
+      <c r="B183" t="s">
+        <v>628</v>
+      </c>
+      <c r="C183" t="s">
+        <v>119</v>
+      </c>
+      <c r="D183" t="s">
+        <v>134</v>
+      </c>
+      <c r="E183" t="s">
+        <v>194</v>
+      </c>
+      <c r="F183" t="s">
+        <v>629</v>
+      </c>
+      <c r="G183" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>339</v>
+      </c>
+      <c r="B184" t="s">
+        <v>630</v>
+      </c>
+      <c r="C184" t="s">
+        <v>631</v>
+      </c>
+      <c r="D184" t="s">
+        <v>522</v>
+      </c>
+      <c r="E184" t="s">
+        <v>632</v>
+      </c>
+      <c r="F184" t="s">
+        <v>633</v>
+      </c>
+      <c r="G184" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>118</v>
+      </c>
+      <c r="B185" t="s">
+        <v>634</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>176</v>
+      </c>
+      <c r="E185" t="s">
+        <v>119</v>
+      </c>
+      <c r="F185" t="s">
+        <v>635</v>
+      </c>
+      <c r="G185" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
+        <v>637</v>
+      </c>
+      <c r="C186" t="s">
+        <v>176</v>
+      </c>
+      <c r="D186" t="s">
+        <v>119</v>
+      </c>
+      <c r="E186" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" t="s">
+        <v>638</v>
+      </c>
+      <c r="G186" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>149</v>
+      </c>
+      <c r="B187" t="s">
+        <v>639</v>
+      </c>
+      <c r="C187" t="s">
+        <v>271</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>640</v>
+      </c>
+      <c r="G187" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>246</v>
+      </c>
+      <c r="B188" t="s">
+        <v>642</v>
+      </c>
+      <c r="C188" t="s">
+        <v>457</v>
+      </c>
+      <c r="D188" t="s">
+        <v>643</v>
+      </c>
+      <c r="E188" t="s">
+        <v>375</v>
+      </c>
+      <c r="F188" t="s">
+        <v>377</v>
+      </c>
+      <c r="G188" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>276</v>
+      </c>
+      <c r="B189" t="s">
+        <v>644</v>
+      </c>
+      <c r="C189" t="s">
+        <v>272</v>
+      </c>
+      <c r="D189" t="s">
+        <v>272</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>88</v>
+      </c>
+      <c r="B190" t="s">
+        <v>645</v>
+      </c>
+      <c r="C190" t="s">
+        <v>646</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" t="s">
+        <v>140</v>
+      </c>
+      <c r="F190" t="s">
+        <v>647</v>
+      </c>
+      <c r="G190" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>137</v>
+      </c>
+      <c r="B191" t="s">
+        <v>648</v>
+      </c>
+      <c r="C191" t="s">
+        <v>272</v>
+      </c>
+      <c r="D191" t="s">
+        <v>324</v>
+      </c>
+      <c r="E191" t="s">
+        <v>144</v>
+      </c>
+      <c r="F191" t="s">
+        <v>649</v>
+      </c>
+      <c r="G191" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>127</v>
+      </c>
+      <c r="B192" t="s">
+        <v>650</v>
+      </c>
+      <c r="C192" t="s">
+        <v>98</v>
+      </c>
+      <c r="D192" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" t="s">
+        <v>176</v>
+      </c>
+      <c r="F192" t="s">
+        <v>651</v>
+      </c>
+      <c r="G192" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>266</v>
+      </c>
+      <c r="B193" t="s">
+        <v>652</v>
+      </c>
+      <c r="C193" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" t="s">
+        <v>98</v>
+      </c>
+      <c r="E193" t="s">
+        <v>135</v>
+      </c>
+      <c r="F193" t="s">
+        <v>653</v>
+      </c>
+      <c r="G193" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>133</v>
+      </c>
+      <c r="B194" t="s">
+        <v>655</v>
+      </c>
+      <c r="C194" t="s">
+        <v>176</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>194</v>
+      </c>
+      <c r="F194" t="s">
+        <v>656</v>
+      </c>
+      <c r="G194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>140</v>
+      </c>
+      <c r="B195" t="s">
+        <v>657</v>
+      </c>
+      <c r="C195" t="s">
+        <v>271</v>
+      </c>
+      <c r="D195" t="s">
+        <v>119</v>
+      </c>
+      <c r="E195" t="s">
+        <v>134</v>
+      </c>
+      <c r="F195" t="s">
+        <v>593</v>
+      </c>
+      <c r="G195" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>129</v>
+      </c>
+      <c r="B196" t="s">
+        <v>658</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E196" t="s">
+        <v>119</v>
+      </c>
+      <c r="F196" t="s">
+        <v>659</v>
+      </c>
+      <c r="G196" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>148</v>
+      </c>
+      <c r="B197" t="s">
+        <v>660</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>661</v>
+      </c>
+      <c r="G197" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>139</v>
+      </c>
+      <c r="B198" t="s">
+        <v>662</v>
+      </c>
+      <c r="C198" t="s">
+        <v>189</v>
+      </c>
+      <c r="D198" t="s">
+        <v>119</v>
+      </c>
+      <c r="E198" t="s">
+        <v>271</v>
+      </c>
+      <c r="F198" t="s">
+        <v>626</v>
+      </c>
+      <c r="G198" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>78</v>
+      </c>
+      <c r="B199" t="s">
+        <v>663</v>
+      </c>
+      <c r="C199" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199" t="s">
+        <v>30</v>
+      </c>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>269</v>
+      </c>
+      <c r="B200" t="s">
+        <v>664</v>
+      </c>
+      <c r="C200" t="s">
+        <v>176</v>
+      </c>
+      <c r="D200" t="s">
+        <v>30</v>
+      </c>
+      <c r="E200" t="s">
+        <v>176</v>
+      </c>
+      <c r="F200" t="s">
+        <v>665</v>
+      </c>
+      <c r="G200" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>114</v>
+      </c>
+      <c r="B201" t="s">
+        <v>666</v>
+      </c>
+      <c r="C201" t="s">
+        <v>176</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="s">
+        <v>194</v>
+      </c>
+      <c r="F201" t="s">
+        <v>667</v>
+      </c>
+      <c r="G201" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>113</v>
+      </c>
+      <c r="B202" t="s">
+        <v>668</v>
+      </c>
+      <c r="C202" t="s">
+        <v>134</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>328</v>
+      </c>
+      <c r="F202" t="s">
+        <v>669</v>
+      </c>
+      <c r="G202" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>249</v>
+      </c>
+      <c r="B203" t="s">
+        <v>671</v>
+      </c>
+      <c r="C203" t="s">
+        <v>672</v>
+      </c>
+      <c r="D203" t="s">
+        <v>673</v>
+      </c>
+      <c r="E203" t="s">
+        <v>674</v>
+      </c>
+      <c r="F203" t="s">
+        <v>675</v>
+      </c>
+      <c r="G203" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>279</v>
+      </c>
+      <c r="B204" t="s">
+        <v>676</v>
+      </c>
+      <c r="C204" t="s">
+        <v>353</v>
+      </c>
+      <c r="D204" t="s">
+        <v>236</v>
+      </c>
+      <c r="E204" t="s">
+        <v>46</v>
+      </c>
+      <c r="F204" t="s">
+        <v>47</v>
+      </c>
+      <c r="G204" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>677</v>
+      </c>
+      <c r="C205" t="s">
+        <v>123</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>678</v>
+      </c>
+      <c r="F205" t="s">
+        <v>679</v>
+      </c>
+      <c r="G205" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>150</v>
+      </c>
+      <c r="B206" t="s">
+        <v>680</v>
+      </c>
+      <c r="C206" t="s">
+        <v>449</v>
+      </c>
+      <c r="D206" t="s">
+        <v>314</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" t="s">
+        <v>681</v>
+      </c>
+      <c r="G206" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>185</v>
+      </c>
+      <c r="B207" t="s">
+        <v>683</v>
+      </c>
+      <c r="C207" t="s">
+        <v>684</v>
+      </c>
+      <c r="D207" t="s">
+        <v>685</v>
+      </c>
+      <c r="E207" t="s">
+        <v>686</v>
+      </c>
+      <c r="F207" t="s">
+        <v>687</v>
+      </c>
+      <c r="G207" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>109</v>
+      </c>
+      <c r="B208" t="s">
+        <v>688</v>
+      </c>
+      <c r="C208" t="s">
+        <v>229</v>
+      </c>
+      <c r="D208" t="s">
+        <v>189</v>
+      </c>
+      <c r="E208" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" t="s">
+        <v>689</v>
+      </c>
+      <c r="G208" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>234</v>
+      </c>
+      <c r="B209" t="s">
+        <v>691</v>
+      </c>
+      <c r="C209" t="s">
+        <v>294</v>
+      </c>
+      <c r="D209" t="s">
+        <v>692</v>
+      </c>
+      <c r="E209" t="s">
+        <v>693</v>
+      </c>
+      <c r="F209" t="s">
+        <v>694</v>
+      </c>
+      <c r="G209" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>248</v>
+      </c>
+      <c r="B210" t="s">
+        <v>695</v>
+      </c>
+      <c r="C210" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" t="s">
+        <v>696</v>
+      </c>
+      <c r="E210" t="s">
+        <v>697</v>
+      </c>
+      <c r="F210" t="s">
+        <v>698</v>
+      </c>
+      <c r="G210" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>169</v>
+      </c>
+      <c r="B211" t="s">
+        <v>699</v>
+      </c>
+      <c r="C211" t="s">
+        <v>700</v>
+      </c>
+      <c r="D211" t="s">
+        <v>701</v>
+      </c>
+      <c r="E211" t="s">
+        <v>702</v>
+      </c>
+      <c r="F211" t="s">
+        <v>703</v>
+      </c>
+      <c r="G211" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>228</v>
+      </c>
+      <c r="B212" t="s">
+        <v>704</v>
+      </c>
+      <c r="C212" t="s">
+        <v>140</v>
+      </c>
+      <c r="D212" t="s">
+        <v>705</v>
+      </c>
+      <c r="E212" t="s">
+        <v>706</v>
+      </c>
+      <c r="F212" t="s">
+        <v>707</v>
+      </c>
+      <c r="G212" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>268</v>
+      </c>
+      <c r="B213" t="s">
+        <v>708</v>
+      </c>
+      <c r="C213" t="s">
+        <v>201</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" t="s">
+        <v>201</v>
+      </c>
+      <c r="F213" t="s">
+        <v>709</v>
+      </c>
+      <c r="G213" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>162</v>
+      </c>
+      <c r="B214" t="s">
+        <v>710</v>
+      </c>
+      <c r="C214" t="s">
+        <v>711</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" t="s">
+        <v>711</v>
+      </c>
+      <c r="F214" t="s">
+        <v>712</v>
+      </c>
+      <c r="G214" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>275</v>
+      </c>
+      <c r="B215" t="s">
+        <v>713</v>
+      </c>
+      <c r="C215" t="s">
+        <v>119</v>
+      </c>
+      <c r="D215" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>119</v>
+      </c>
+      <c r="F215" t="s">
+        <v>714</v>
+      </c>
+      <c r="G215" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>258</v>
+      </c>
+      <c r="B216" t="s">
+        <v>715</v>
+      </c>
+      <c r="C216" t="s">
+        <v>236</v>
+      </c>
+      <c r="D216" t="s">
+        <v>716</v>
+      </c>
+      <c r="E216" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" t="s">
+        <v>717</v>
+      </c>
+      <c r="G216" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>167</v>
+      </c>
+      <c r="B217" t="s">
+        <v>719</v>
+      </c>
+      <c r="C217" t="s">
+        <v>720</v>
+      </c>
+      <c r="D217" t="s">
+        <v>721</v>
+      </c>
+      <c r="E217" t="s">
+        <v>236</v>
+      </c>
+      <c r="F217" t="s">
+        <v>722</v>
+      </c>
+      <c r="G217" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>176</v>
+      </c>
+      <c r="B218" t="s">
+        <v>723</v>
+      </c>
+      <c r="C218" t="s">
+        <v>139</v>
+      </c>
+      <c r="D218" t="s">
+        <v>123</v>
+      </c>
+      <c r="E218" t="s">
+        <v>716</v>
+      </c>
+      <c r="F218" t="s">
+        <v>217</v>
+      </c>
+      <c r="G218" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Cruce de inventarios  .xlsx
+++ b/dfpyme/Cruce de inventarios  .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t xml:space="preserve">CRUCE DE INVENTARIOS </t>
   </si>
@@ -671,1522 +671,1516 @@
     <t>9.000</t>
   </si>
   <si>
+    <t>GASEOSA MANZANA 400</t>
+  </si>
+  <si>
+    <t>18.326</t>
+  </si>
+  <si>
+    <t>33.000</t>
+  </si>
+  <si>
+    <t>GASEOSA NARANJA 400</t>
+  </si>
+  <si>
+    <t>8.330</t>
+  </si>
+  <si>
+    <t>TRISSITOS 34G</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31.784</t>
+  </si>
+  <si>
+    <t>63.800</t>
+  </si>
+  <si>
+    <t>HIT MANGO</t>
+  </si>
+  <si>
+    <t>-5.366</t>
+  </si>
+  <si>
+    <t>-7.000</t>
+  </si>
+  <si>
+    <t>BOCADILLO UND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>CAFE INSUMO GR</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>-1.792</t>
+  </si>
+  <si>
+    <t>AREPA INSUMO UND</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-52.500</t>
+  </si>
+  <si>
+    <t>CHOCOLATINA JET</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>29.111</t>
+  </si>
+  <si>
+    <t>43.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA DE AJO INSUMO GR</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>-252</t>
+  </si>
+  <si>
+    <t>-15.120</t>
+  </si>
+  <si>
+    <t>CHOKIS CLASICA</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15.431</t>
+  </si>
+  <si>
+    <t>26.000</t>
+  </si>
+  <si>
+    <t>BOLAS NOX PRO TITANIUM</t>
+  </si>
+  <si>
+    <t>672.000</t>
+  </si>
+  <si>
+    <t>1.080.000</t>
+  </si>
+  <si>
+    <t>AGUILA ORIGINAL LATON INSUMO</t>
+  </si>
+  <si>
+    <t>8.499</t>
+  </si>
+  <si>
+    <t>HIT MORA</t>
+  </si>
+  <si>
+    <t>5.366</t>
+  </si>
+  <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>HIT TROPICAL</t>
+  </si>
+  <si>
+    <t>MANIMOTO NATURAL</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11.214</t>
+  </si>
+  <si>
+    <t>27.000</t>
+  </si>
+  <si>
+    <t>CHOKIS BLACK</t>
+  </si>
+  <si>
+    <t>4.748</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>GASEOSA PEPSI 400</t>
+  </si>
+  <si>
+    <t>3.332</t>
+  </si>
+  <si>
+    <t>6.000</t>
+  </si>
+  <si>
+    <t>GATORADE MANDARINA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>-15.600</t>
+  </si>
+  <si>
+    <t>CLUB COLOMBIA LATÓN</t>
+  </si>
+  <si>
+    <t>66.470</t>
+  </si>
+  <si>
+    <t>138.000</t>
+  </si>
+  <si>
+    <t>AGUA 600</t>
+  </si>
+  <si>
+    <t>11.662</t>
+  </si>
+  <si>
+    <t>HIT LULO</t>
+  </si>
+  <si>
+    <t>2.683</t>
+  </si>
+  <si>
+    <t>3.500</t>
+  </si>
+  <si>
+    <t>ARANDANOS INSUMO GR</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>GATORADE SIN AZUCAR</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>-9.000</t>
+  </si>
+  <si>
+    <t>-15.000</t>
+  </si>
+  <si>
+    <t>GASEOSA COLOMBIANA 400</t>
+  </si>
+  <si>
+    <t>13.328</t>
+  </si>
+  <si>
+    <t>24.000</t>
+  </si>
+  <si>
+    <t>TAMARINDO</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>LIMON GR</t>
+  </si>
+  <si>
+    <t>7388</t>
+  </si>
+  <si>
+    <t>-6188</t>
+  </si>
+  <si>
+    <t>-618.800</t>
+  </si>
+  <si>
+    <t>H2O LIMON</t>
+  </si>
+  <si>
+    <t>15.162</t>
+  </si>
+  <si>
+    <t>25.900</t>
+  </si>
+  <si>
+    <t>MR TEA DURAZNO</t>
+  </si>
+  <si>
+    <t>-4.166</t>
+  </si>
+  <si>
+    <t>PAN BRIOCHE INSUMO UND</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>-34.200</t>
+  </si>
+  <si>
+    <t>CEBOLLA MORADA INSUMO GR</t>
+  </si>
+  <si>
+    <t>5420</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>36.900</t>
+  </si>
+  <si>
+    <t>MANIMOTO FLAMING HOT</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>PILSEN INSUMO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MANIMOTO LIMON</t>
+  </si>
+  <si>
+    <t>REDBULL</t>
+  </si>
+  <si>
+    <t>CHOKIS BOLITA</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-1.187</t>
+  </si>
+  <si>
+    <t>-2.000</t>
+  </si>
+  <si>
+    <t>GASEOSA UVA 400</t>
+  </si>
+  <si>
+    <t>AGUACATE INSUMO GR</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>-220</t>
+  </si>
+  <si>
+    <t>-1.100</t>
+  </si>
+  <si>
+    <t>MR TEA LIMON</t>
+  </si>
+  <si>
+    <t>-6.249</t>
+  </si>
+  <si>
+    <t>-10.500</t>
+  </si>
+  <si>
+    <t>HIT NARANJA PIÑA</t>
+  </si>
+  <si>
+    <t>8.049</t>
+  </si>
+  <si>
+    <t>10.500</t>
+  </si>
+  <si>
+    <t>AJO INSUMO GR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>-362</t>
+  </si>
+  <si>
+    <t>-36.200</t>
+  </si>
+  <si>
+    <t>CASERO GUANABANA</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-21.324</t>
+  </si>
+  <si>
+    <t>-32.400</t>
+  </si>
+  <si>
+    <t>NARANJA INSUMO UND</t>
+  </si>
+  <si>
+    <t>2661</t>
+  </si>
+  <si>
+    <t>2657</t>
+  </si>
+  <si>
+    <t>2.657.000</t>
+  </si>
+  <si>
+    <t>BOLSA DE TE UND</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>27.300</t>
+  </si>
+  <si>
+    <t>H20 MARACUYA</t>
+  </si>
+  <si>
+    <t>25.992</t>
+  </si>
+  <si>
+    <t>44.400</t>
+  </si>
+  <si>
+    <t>BANANO INSUMO UND</t>
+  </si>
+  <si>
+    <t>-890</t>
+  </si>
+  <si>
+    <t>-880</t>
+  </si>
+  <si>
+    <t>GATORADE ROJO</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>-59.800</t>
+  </si>
+  <si>
+    <t>-103.500</t>
+  </si>
+  <si>
+    <t>CHOKIS CHOCOBASE</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-8.309</t>
+  </si>
+  <si>
+    <t>-14.000</t>
+  </si>
+  <si>
+    <t>TORTA</t>
+  </si>
+  <si>
+    <t>MOSTAZA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>16.100</t>
+  </si>
+  <si>
+    <t>GATORADE MARACUYA</t>
+  </si>
+  <si>
+    <t>-7.800</t>
+  </si>
+  <si>
+    <t>PALOS DE QUESO</t>
+  </si>
+  <si>
+    <t>PAN ARTESANAL INSUMO UND</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>-10.400</t>
+  </si>
+  <si>
+    <t>MEZCLA FRANCESA INSUMO GR</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>5.800</t>
+  </si>
+  <si>
+    <t>PAN FOCACCIA INSUMO UND</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>QUESO ASADO INSUMO GR</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>-190</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>QUESO CUAJADA INSUMO GR</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>-25.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA INSUMO GR</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>-1800</t>
+  </si>
+  <si>
+    <t>-12.600</t>
+  </si>
+  <si>
+    <t>QUESO MOZZA UNIDAD INSUMO</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>63.000</t>
+  </si>
+  <si>
+    <t>SALSA DE TOMATE  INSUMO GR</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>4.920</t>
+  </si>
+  <si>
+    <t>MAYONESA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>7560</t>
+  </si>
+  <si>
+    <t>-3760</t>
+  </si>
+  <si>
+    <t>-112.800</t>
+  </si>
+  <si>
+    <t>FRUTOS AMARILLO GR</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>70.160</t>
+  </si>
+  <si>
+    <t>HOGAO INSUMO GR</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>32.060</t>
+  </si>
+  <si>
+    <t>PROTEINA INSUMO GR</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>3.688.000</t>
+  </si>
+  <si>
+    <t>PATACONES INSUMO UND</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>42.500</t>
+  </si>
+  <si>
+    <t>PEPINILLOS DULCES GR</t>
+  </si>
+  <si>
+    <t>4619</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>53.872</t>
+  </si>
+  <si>
+    <t>DEDOS DE QUESO INSUMO UND</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>39.100</t>
+  </si>
+  <si>
+    <t>FRUTOS ROJOS INSUMO GR</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>3354</t>
+  </si>
+  <si>
+    <t>167.700</t>
+  </si>
+  <si>
+    <t>HUEVOS INSUMO UND</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>SALSA CEVICHE DE CHICHARRON</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>-754</t>
+  </si>
+  <si>
+    <t>-1.508.000</t>
+  </si>
+  <si>
+    <t>PALA HEAD ZEPHYR 2023</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>18.500.000</t>
+  </si>
+  <si>
+    <t>38.850.000</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA DE MANI INSUMO GR</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>3183</t>
+  </si>
+  <si>
+    <t>-1715</t>
+  </si>
+  <si>
+    <t>-68.600</t>
+  </si>
+  <si>
+    <t>YOGURT GRIEGO ML</t>
+  </si>
+  <si>
+    <t>4250</t>
+  </si>
+  <si>
+    <t>4550</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>-6.600</t>
+  </si>
+  <si>
+    <t>-13.200</t>
+  </si>
+  <si>
+    <t>QUESO MOZARELLA INSUMO</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>-129</t>
+  </si>
+  <si>
+    <t>-193.500</t>
+  </si>
+  <si>
+    <t>SAL INSUMO GR</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>15.150</t>
+  </si>
+  <si>
+    <t>QUESO PARMESANO INSUMO GR</t>
+  </si>
+  <si>
+    <t>4560</t>
+  </si>
+  <si>
+    <t>4365</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>MANGO INSUMO GR</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1.045.000</t>
+  </si>
+  <si>
+    <t>SALSA ROSADA</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>-374</t>
+  </si>
+  <si>
+    <t>-374.000</t>
+  </si>
+  <si>
+    <t>PESTO INSUMO GR</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>7.700</t>
+  </si>
+  <si>
+    <t>QUESO DIBUFFALA INSUMO UND</t>
+  </si>
+  <si>
+    <t>TOMATES CHERRY INSUMO GR</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>18.900</t>
+  </si>
+  <si>
+    <t>VINAGRA BALSAMICO INSUMO GR</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>122.000</t>
+  </si>
+  <si>
+    <t>ZUMO DE LIMON INSUMO ML</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>5319</t>
+  </si>
+  <si>
+    <t>3181</t>
+  </si>
+  <si>
+    <t>31.810</t>
+  </si>
+  <si>
+    <t>1.590.500</t>
+  </si>
+  <si>
+    <t>TAMARINDO INSUMO UND</t>
+  </si>
+  <si>
+    <t>KIWI INSUMO UND</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>VINAGRETA DE CILANTRO INSUMO GR</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>-306</t>
+  </si>
+  <si>
+    <t>-15.300</t>
+  </si>
+  <si>
+    <t>POLLO INSUMO GR</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>-7269</t>
+  </si>
+  <si>
+    <t>-145.380</t>
+  </si>
+  <si>
+    <t>VAINILLA INSUMO ML</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>-180</t>
+  </si>
+  <si>
+    <t>-3.060</t>
+  </si>
+  <si>
+    <t>PAPA RUSTICA INSUMO GR</t>
+  </si>
+  <si>
+    <t>10118</t>
+  </si>
+  <si>
+    <t>-8828</t>
+  </si>
+  <si>
+    <t>-132.420</t>
+  </si>
+  <si>
+    <t>PIÑA INSUMO GR</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>-202</t>
+  </si>
+  <si>
+    <t>-2.020</t>
+  </si>
+  <si>
+    <t>PIMENTON INSUMO GR</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>7.770</t>
+  </si>
+  <si>
+    <t>TOMATE INSUMO GR</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>379.908</t>
+  </si>
+  <si>
+    <t>CHEESE TRIS 42G</t>
+  </si>
+  <si>
+    <t>5.240</t>
+  </si>
+  <si>
+    <t>DETODITO NATURAL 45G</t>
+  </si>
+  <si>
+    <t>10.235</t>
+  </si>
+  <si>
+    <t>17.500</t>
+  </si>
+  <si>
+    <t>AGUA CON GAS</t>
+  </si>
+  <si>
+    <t>16.660</t>
+  </si>
+  <si>
+    <t>25.000</t>
+  </si>
+  <si>
+    <t>DETODITO FLAMING HOT</t>
+  </si>
+  <si>
+    <t>MANI MOTO MEZC NUEC</t>
+  </si>
+  <si>
+    <t>3.800</t>
+  </si>
+  <si>
+    <t>TOCINETA INSUMO UND</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>-27.600</t>
+  </si>
+  <si>
+    <t>CHEETOS NATURALES 40G</t>
+  </si>
+  <si>
+    <t>1.310</t>
+  </si>
+  <si>
+    <t>2.500</t>
+  </si>
+  <si>
+    <t>DORITOS MEGAQUESO 185G</t>
+  </si>
+  <si>
+    <t>-12.888</t>
+  </si>
+  <si>
+    <t>-17.000</t>
+  </si>
+  <si>
+    <t>MARGARITA CEBOLLA 30G</t>
+  </si>
+  <si>
+    <t>8.190</t>
+  </si>
+  <si>
+    <t>CHOCLITOS 45G</t>
+  </si>
+  <si>
+    <t>3.927</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>MARGARITA BBQ 30G</t>
+  </si>
+  <si>
+    <t>-4.914</t>
+  </si>
+  <si>
+    <t>NATUCHIPS VERDES 38G</t>
+  </si>
+  <si>
+    <t>4.914</t>
+  </si>
+  <si>
+    <t>DORITOS DINAMITA LIMON</t>
+  </si>
+  <si>
+    <t>8.620</t>
+  </si>
+  <si>
+    <t>14.000</t>
+  </si>
+  <si>
+    <t>MARGARITA LIMON 105G</t>
+  </si>
+  <si>
+    <t>-5.283</t>
+  </si>
+  <si>
+    <t>-8.000</t>
+  </si>
+  <si>
+    <t>MARGARITA NATURAL 105G</t>
+  </si>
+  <si>
+    <t>-21.132</t>
+  </si>
+  <si>
+    <t>-32.000</t>
+  </si>
+  <si>
+    <t>MARGARITA NATURAL 30G</t>
+  </si>
+  <si>
+    <t>6.552</t>
+  </si>
+  <si>
+    <t>DETODITO MIX 45G</t>
+  </si>
+  <si>
+    <t>4.094</t>
+  </si>
+  <si>
+    <t>DORITOS 43G</t>
+  </si>
+  <si>
+    <t>-3.604</t>
+  </si>
+  <si>
+    <t>MANIMOTO NAKED SAL</t>
+  </si>
+  <si>
+    <t>8.722</t>
+  </si>
+  <si>
+    <t>21.000</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADAS TOMATE</t>
+  </si>
+  <si>
+    <t>MARGARITA POLLO 105G</t>
+  </si>
+  <si>
+    <t>-10.566</t>
+  </si>
+  <si>
+    <t>GRIP HEAD</t>
+  </si>
+  <si>
+    <t>-105.000</t>
+  </si>
+  <si>
+    <t>-225.000</t>
+  </si>
+  <si>
+    <t>MARGARITA RECETA CLASICA ALITAS</t>
+  </si>
+  <si>
+    <t>-18.840</t>
+  </si>
+  <si>
+    <t>-25.500</t>
+  </si>
+  <si>
+    <t>DETODITO BBQ150G</t>
+  </si>
+  <si>
+    <t>-124.010</t>
+  </si>
+  <si>
+    <t>GRIP WILSON</t>
+  </si>
+  <si>
+    <t>45.000</t>
+  </si>
+  <si>
+    <t>DETODITO LIMON 150G</t>
+  </si>
+  <si>
+    <t>ALQUILER PALA</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>522.000</t>
+  </si>
+  <si>
+    <t>3.915.000</t>
+  </si>
+  <si>
+    <t>NATUCHIPS MADUROS 38G</t>
+  </si>
+  <si>
+    <t>COLA Y POLA</t>
+  </si>
+  <si>
+    <t>DETODITO BBQ 45G</t>
+  </si>
+  <si>
+    <t>-6.141</t>
+  </si>
+  <si>
+    <t>MARGARITA POLLO 30G</t>
+  </si>
+  <si>
+    <t>9.828</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>NATUCHIPS VERDES 135G</t>
+  </si>
+  <si>
+    <t>-11.272</t>
+  </si>
+  <si>
+    <t>SALSA VERDE INSUMO GR</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>-336</t>
+  </si>
+  <si>
+    <t>-168.000</t>
+  </si>
+  <si>
+    <t>MARGARITA RECETA CLASICA SAL</t>
+  </si>
+  <si>
+    <t>12.560</t>
+  </si>
+  <si>
+    <t>17.000</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADAS MAYONESA</t>
+  </si>
+  <si>
+    <t>5.283</t>
+  </si>
+  <si>
+    <t>CHEETOS BOLIQUESO</t>
+  </si>
+  <si>
+    <t>6.550</t>
+  </si>
+  <si>
+    <t>12.500</t>
+  </si>
+  <si>
+    <t>SALCHICHA RANCHERA INSUMO UND</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>CORONA INSUMO</t>
+  </si>
+  <si>
+    <t>BRETAÑA</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>72.905</t>
+  </si>
+  <si>
+    <t>DORITOS DINAMITA FLAMING HOT</t>
+  </si>
+  <si>
+    <t>-6.465</t>
+  </si>
+  <si>
+    <t>DETODITO LIMON 45G</t>
+  </si>
+  <si>
+    <t>6.141</t>
+  </si>
+  <si>
+    <t>CASERO MORA</t>
+  </si>
+  <si>
+    <t>30.209</t>
+  </si>
+  <si>
+    <t>45.900</t>
+  </si>
+  <si>
+    <t>CHOCLITOS 210G</t>
+  </si>
+  <si>
+    <t>-11.774</t>
+  </si>
+  <si>
+    <t>MARGARITA LIMON 30G</t>
+  </si>
+  <si>
+    <t>NATUCHIPS MADUROS 135G</t>
+  </si>
+  <si>
+    <t>11.272</t>
+  </si>
+  <si>
+    <t>GUDIZ 28G</t>
+  </si>
+  <si>
+    <t>4.505</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADA TOMATE 37G</t>
+  </si>
+  <si>
+    <t>AGUILA LIGHT LATA</t>
+  </si>
+  <si>
+    <t>POLET</t>
+  </si>
+  <si>
+    <t>12.300</t>
+  </si>
+  <si>
+    <t>DETODITO MIX 150G</t>
+  </si>
+  <si>
+    <t>-12.400</t>
+  </si>
+  <si>
+    <t>DETODITO NATURAL 150G</t>
+  </si>
+  <si>
+    <t>-6.200</t>
+  </si>
+  <si>
+    <t>-8.500</t>
+  </si>
+  <si>
+    <t>SALSA PEPINILLO DULCE INSUMO GR</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>4775</t>
+  </si>
+  <si>
+    <t>143.250</t>
+  </si>
+  <si>
+    <t>POKER LATON INSUMO</t>
+  </si>
+  <si>
+    <t>CARNE DE HAMBURGUESA UND</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-85.000</t>
+  </si>
+  <si>
+    <t>TARRO BOLAS HEAD PADEL PRO</t>
+  </si>
+  <si>
+    <t>588.000</t>
+  </si>
+  <si>
+    <t>945.000</t>
+  </si>
+  <si>
+    <t>GATORADE AZUL</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>153.400</t>
+  </si>
+  <si>
+    <t>265.500</t>
+  </si>
+  <si>
+    <t>CILANTRO INSUMO GR</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-210</t>
+  </si>
+  <si>
+    <t>AGUILA LIGHT LATÓN</t>
+  </si>
+  <si>
+    <t>59.493</t>
+  </si>
+  <si>
+    <t>115.500</t>
+  </si>
+  <si>
+    <t>PIMIENTA INSUMO GR</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>-26.400</t>
+  </si>
+  <si>
+    <t>SALSA HOLANDESA GR</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>-186</t>
+  </si>
+  <si>
+    <t>-9.300</t>
+  </si>
+  <si>
+    <t>APIO INSUMO GR</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>-140</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>4.130</t>
+  </si>
+  <si>
+    <t>PANCAKES UND</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-30.600</t>
+  </si>
+  <si>
+    <t>HELADO ARTESANAL TRES LECHES</t>
+  </si>
+  <si>
+    <t>35.820</t>
+  </si>
+  <si>
+    <t>ACEITE INSUMO</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
+  </si>
+  <si>
+    <t>CLUB COLOMBIA LATA INSUMO</t>
+  </si>
+  <si>
+    <t>5.600</t>
+  </si>
+  <si>
+    <t>CHOCOCONO</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-48.400</t>
+  </si>
+  <si>
+    <t>-70.000</t>
+  </si>
+  <si>
+    <t>ALMENDRA INSUMO GR</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>CANELA INSUMO GR</t>
+  </si>
+  <si>
+    <t>MARGARITA ONDULADA MAYONESA 37G</t>
+  </si>
+  <si>
     <t>AGUA LITRO</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>64.504</t>
-  </si>
-  <si>
-    <t>GASEOSA MANZANA 400</t>
-  </si>
-  <si>
-    <t>18.326</t>
-  </si>
-  <si>
-    <t>33.000</t>
-  </si>
-  <si>
-    <t>GASEOSA NARANJA 400</t>
-  </si>
-  <si>
-    <t>8.330</t>
-  </si>
-  <si>
-    <t>TRISSITOS 34G</t>
-  </si>
-  <si>
-    <t>GOL</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>31.784</t>
-  </si>
-  <si>
-    <t>63.800</t>
-  </si>
-  <si>
-    <t>HIT MANGO</t>
-  </si>
-  <si>
-    <t>-5.366</t>
-  </si>
-  <si>
-    <t>-7.000</t>
-  </si>
-  <si>
-    <t>BOCADILLO UND</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4.000</t>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>CAFE INSUMO GR</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2328</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>-1.792</t>
-  </si>
-  <si>
-    <t>AREPA INSUMO UND</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-52.500</t>
-  </si>
-  <si>
-    <t>CHOCOLATINA JET</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>29.111</t>
-  </si>
-  <si>
-    <t>43.000</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA DE AJO INSUMO GR</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>-252</t>
-  </si>
-  <si>
-    <t>-15.120</t>
-  </si>
-  <si>
-    <t>CHOKIS CLASICA</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15.431</t>
-  </si>
-  <si>
-    <t>26.000</t>
-  </si>
-  <si>
-    <t>BOLAS NOX PRO TITANIUM</t>
-  </si>
-  <si>
-    <t>672.000</t>
-  </si>
-  <si>
-    <t>1.080.000</t>
-  </si>
-  <si>
-    <t>AGUILA ORIGINAL LATON INSUMO</t>
-  </si>
-  <si>
-    <t>8.499</t>
-  </si>
-  <si>
-    <t>HIT MORA</t>
-  </si>
-  <si>
-    <t>5.366</t>
-  </si>
-  <si>
-    <t>7.000</t>
-  </si>
-  <si>
-    <t>HIT TROPICAL</t>
-  </si>
-  <si>
-    <t>MANIMOTO NATURAL</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11.214</t>
-  </si>
-  <si>
-    <t>27.000</t>
-  </si>
-  <si>
-    <t>CHOKIS BLACK</t>
-  </si>
-  <si>
-    <t>4.748</t>
-  </si>
-  <si>
-    <t>8.000</t>
-  </si>
-  <si>
-    <t>GASEOSA PEPSI 400</t>
-  </si>
-  <si>
-    <t>3.332</t>
-  </si>
-  <si>
-    <t>6.000</t>
-  </si>
-  <si>
-    <t>GATORADE MANDARINA</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>-15.600</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA LATÓN</t>
-  </si>
-  <si>
-    <t>66.470</t>
-  </si>
-  <si>
-    <t>138.000</t>
-  </si>
-  <si>
-    <t>AGUA 600</t>
-  </si>
-  <si>
-    <t>11.662</t>
-  </si>
-  <si>
-    <t>HIT LULO</t>
-  </si>
-  <si>
-    <t>2.683</t>
-  </si>
-  <si>
-    <t>3.500</t>
-  </si>
-  <si>
-    <t>ARANDANOS INSUMO GR</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>GATORADE SIN AZUCAR</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>-9.000</t>
-  </si>
-  <si>
-    <t>-15.000</t>
-  </si>
-  <si>
-    <t>GASEOSA COLOMBIANA 400</t>
-  </si>
-  <si>
-    <t>13.328</t>
-  </si>
-  <si>
-    <t>24.000</t>
-  </si>
-  <si>
-    <t>TAMARINDO</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>LIMON GR</t>
-  </si>
-  <si>
-    <t>7388</t>
-  </si>
-  <si>
-    <t>-6188</t>
-  </si>
-  <si>
-    <t>-618.800</t>
-  </si>
-  <si>
-    <t>H2O LIMON</t>
-  </si>
-  <si>
-    <t>15.162</t>
-  </si>
-  <si>
-    <t>25.900</t>
-  </si>
-  <si>
-    <t>MR TEA DURAZNO</t>
-  </si>
-  <si>
-    <t>-4.166</t>
-  </si>
-  <si>
-    <t>PAN BRIOCHE INSUMO UND</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>-34.200</t>
-  </si>
-  <si>
-    <t>CEBOLLA MORADA INSUMO GR</t>
-  </si>
-  <si>
-    <t>5420</t>
-  </si>
-  <si>
-    <t>1730</t>
-  </si>
-  <si>
-    <t>3690</t>
-  </si>
-  <si>
-    <t>36.900</t>
-  </si>
-  <si>
-    <t>MANIMOTO FLAMING HOT</t>
-  </si>
-  <si>
-    <t>1.246</t>
-  </si>
-  <si>
-    <t>PILSEN INSUMO</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>MANIMOTO LIMON</t>
-  </si>
-  <si>
-    <t>REDBULL</t>
-  </si>
-  <si>
-    <t>CHOKIS BOLITA</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-1.187</t>
-  </si>
-  <si>
-    <t>-2.000</t>
-  </si>
-  <si>
-    <t>GATORADE AZUL</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>148.200</t>
-  </si>
-  <si>
-    <t>256.500</t>
-  </si>
-  <si>
-    <t>GASEOSA UVA 400</t>
-  </si>
-  <si>
-    <t>AGUACATE INSUMO GR</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>-220</t>
-  </si>
-  <si>
-    <t>-1.100</t>
-  </si>
-  <si>
-    <t>MR TEA LIMON</t>
-  </si>
-  <si>
-    <t>-6.249</t>
-  </si>
-  <si>
-    <t>-10.500</t>
-  </si>
-  <si>
-    <t>HIT NARANJA PIÑA</t>
-  </si>
-  <si>
-    <t>8.049</t>
-  </si>
-  <si>
-    <t>10.500</t>
-  </si>
-  <si>
-    <t>AJO INSUMO GR</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>-362</t>
-  </si>
-  <si>
-    <t>-36.200</t>
-  </si>
-  <si>
-    <t>CASERO GUANABANA</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-21.324</t>
-  </si>
-  <si>
-    <t>-32.400</t>
-  </si>
-  <si>
-    <t>NARANJA INSUMO UND</t>
-  </si>
-  <si>
-    <t>2661</t>
-  </si>
-  <si>
-    <t>2657</t>
-  </si>
-  <si>
-    <t>2.657.000</t>
-  </si>
-  <si>
-    <t>BOLSA DE TE UND</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>27.300</t>
-  </si>
-  <si>
-    <t>H20 MARACUYA</t>
-  </si>
-  <si>
-    <t>25.992</t>
-  </si>
-  <si>
-    <t>44.400</t>
-  </si>
-  <si>
-    <t>BANANO INSUMO UND</t>
-  </si>
-  <si>
-    <t>-890</t>
-  </si>
-  <si>
-    <t>-880</t>
-  </si>
-  <si>
-    <t>GATORADE ROJO</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>-59.800</t>
-  </si>
-  <si>
-    <t>-103.500</t>
-  </si>
-  <si>
-    <t>CHOKIS CHOCOBASE</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-8.309</t>
-  </si>
-  <si>
-    <t>-14.000</t>
-  </si>
-  <si>
-    <t>TORTA</t>
-  </si>
-  <si>
-    <t>MOSTAZA INSUMO GR</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>16.100</t>
-  </si>
-  <si>
-    <t>GATORADE MARACUYA</t>
-  </si>
-  <si>
-    <t>-7.800</t>
-  </si>
-  <si>
-    <t>PALOS DE QUESO</t>
-  </si>
-  <si>
-    <t>PAN ARTESANAL INSUMO UND</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>-10.400</t>
-  </si>
-  <si>
-    <t>MEZCLA FRANCESA INSUMO GR</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>-160</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>5.800</t>
-  </si>
-  <si>
-    <t>PAN FOCACCIA INSUMO UND</t>
-  </si>
-  <si>
-    <t>36.000</t>
-  </si>
-  <si>
-    <t>QUESO ASADO INSUMO GR</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>-190</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>23.000</t>
-  </si>
-  <si>
-    <t>QUESO CUAJADA INSUMO GR</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>-1000</t>
-  </si>
-  <si>
-    <t>-25.000</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA INSUMO GR</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>-1800</t>
-  </si>
-  <si>
-    <t>-12.600</t>
-  </si>
-  <si>
-    <t>QUESO MOZZA UNIDAD INSUMO</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>63.000</t>
-  </si>
-  <si>
-    <t>SALSA DE TOMATE  INSUMO GR</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>2390</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>4.920</t>
-  </si>
-  <si>
-    <t>MAYONESA INSUMO GR</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>7560</t>
-  </si>
-  <si>
-    <t>-3760</t>
-  </si>
-  <si>
-    <t>-112.800</t>
-  </si>
-  <si>
-    <t>FRUTOS AMARILLO GR</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>3246</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>70.160</t>
-  </si>
-  <si>
-    <t>HOGAO INSUMO GR</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>32.060</t>
-  </si>
-  <si>
-    <t>PROTEINA INSUMO GR</t>
-  </si>
-  <si>
-    <t>3350</t>
-  </si>
-  <si>
-    <t>1506</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>3.688.000</t>
-  </si>
-  <si>
-    <t>PATACONES INSUMO UND</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>42.500</t>
-  </si>
-  <si>
-    <t>PEPINILLOS DULCES GR</t>
-  </si>
-  <si>
-    <t>4619</t>
-  </si>
-  <si>
-    <t>2695</t>
-  </si>
-  <si>
-    <t>1924</t>
-  </si>
-  <si>
-    <t>53.872</t>
-  </si>
-  <si>
-    <t>DEDOS DE QUESO INSUMO UND</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>39.100</t>
-  </si>
-  <si>
-    <t>FRUTOS ROJOS INSUMO GR</t>
-  </si>
-  <si>
-    <t>4400</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>3354</t>
-  </si>
-  <si>
-    <t>167.700</t>
-  </si>
-  <si>
-    <t>HUEVOS INSUMO UND</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>SALSA CEVICHE DE CHICHARRON</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>1194</t>
-  </si>
-  <si>
-    <t>-754</t>
-  </si>
-  <si>
-    <t>-1.508.000</t>
-  </si>
-  <si>
-    <t>PALA HEAD ZEPHYR 2023</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>18.500.000</t>
-  </si>
-  <si>
-    <t>38.850.000</t>
-  </si>
-  <si>
-    <t>MANTEQUILLA DE MANI INSUMO GR</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>3183</t>
-  </si>
-  <si>
-    <t>-1715</t>
-  </si>
-  <si>
-    <t>-68.600</t>
-  </si>
-  <si>
-    <t>YOGURT GRIEGO ML</t>
-  </si>
-  <si>
-    <t>4250</t>
-  </si>
-  <si>
-    <t>4550</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>-6.600</t>
-  </si>
-  <si>
-    <t>-13.200</t>
-  </si>
-  <si>
-    <t>QUESO MOZARELLA INSUMO</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>-129</t>
-  </si>
-  <si>
-    <t>-193.500</t>
-  </si>
-  <si>
-    <t>SAL INSUMO GR</t>
-  </si>
-  <si>
-    <t>1490</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>15.150</t>
-  </si>
-  <si>
-    <t>QUESO PARMESANO INSUMO GR</t>
-  </si>
-  <si>
-    <t>4560</t>
-  </si>
-  <si>
-    <t>4365</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>MANGO INSUMO GR</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1.045.000</t>
-  </si>
-  <si>
-    <t>SALSA ROSADA</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>-374</t>
-  </si>
-  <si>
-    <t>-374.000</t>
-  </si>
-  <si>
-    <t>PESTO INSUMO GR</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>7.700</t>
-  </si>
-  <si>
-    <t>QUESO DIBUFFALA INSUMO UND</t>
-  </si>
-  <si>
-    <t>TOMATES CHERRY INSUMO GR</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>18.900</t>
-  </si>
-  <si>
-    <t>VINAGRA BALSAMICO INSUMO GR</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>122.000</t>
-  </si>
-  <si>
-    <t>ZUMO DE LIMON INSUMO ML</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>5319</t>
-  </si>
-  <si>
-    <t>3181</t>
-  </si>
-  <si>
-    <t>31.810</t>
-  </si>
-  <si>
-    <t>1.590.500</t>
-  </si>
-  <si>
-    <t>TAMARINDO INSUMO UND</t>
-  </si>
-  <si>
-    <t>KIWI INSUMO UND</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>VINAGRETA DE CILANTRO INSUMO GR</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>-306</t>
-  </si>
-  <si>
-    <t>-15.300</t>
-  </si>
-  <si>
-    <t>POLLO INSUMO GR</t>
-  </si>
-  <si>
-    <t>7300</t>
-  </si>
-  <si>
-    <t>-7269</t>
-  </si>
-  <si>
-    <t>-145.380</t>
-  </si>
-  <si>
-    <t>VAINILLA INSUMO ML</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>-180</t>
-  </si>
-  <si>
-    <t>-3.060</t>
-  </si>
-  <si>
-    <t>PAPA RUSTICA INSUMO GR</t>
-  </si>
-  <si>
-    <t>10118</t>
-  </si>
-  <si>
-    <t>-8828</t>
-  </si>
-  <si>
-    <t>-132.420</t>
-  </si>
-  <si>
-    <t>PIÑA INSUMO GR</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>-202</t>
-  </si>
-  <si>
-    <t>-2.020</t>
-  </si>
-  <si>
-    <t>PIMENTON INSUMO GR</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>7.770</t>
-  </si>
-  <si>
-    <t>TOMATE INSUMO GR</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>379.908</t>
-  </si>
-  <si>
-    <t>CHEESE TRIS 42G</t>
-  </si>
-  <si>
-    <t>5.240</t>
-  </si>
-  <si>
-    <t>DETODITO NATURAL 45G</t>
-  </si>
-  <si>
-    <t>10.235</t>
-  </si>
-  <si>
-    <t>17.500</t>
-  </si>
-  <si>
-    <t>AGUA CON GAS</t>
-  </si>
-  <si>
-    <t>16.660</t>
-  </si>
-  <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>DETODITO FLAMING HOT</t>
-  </si>
-  <si>
-    <t>MANI MOTO MEZC NUEC</t>
-  </si>
-  <si>
-    <t>3.800</t>
-  </si>
-  <si>
-    <t>TOCINETA INSUMO UND</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>-27.600</t>
-  </si>
-  <si>
-    <t>CHEETOS NATURALES 40G</t>
-  </si>
-  <si>
-    <t>1.310</t>
-  </si>
-  <si>
-    <t>2.500</t>
-  </si>
-  <si>
-    <t>DORITOS MEGAQUESO 185G</t>
-  </si>
-  <si>
-    <t>-12.888</t>
-  </si>
-  <si>
-    <t>-17.000</t>
-  </si>
-  <si>
-    <t>MARGARITA CEBOLLA 30G</t>
-  </si>
-  <si>
-    <t>8.190</t>
-  </si>
-  <si>
-    <t>CHOCLITOS 45G</t>
-  </si>
-  <si>
-    <t>3.927</t>
-  </si>
-  <si>
-    <t>7.500</t>
-  </si>
-  <si>
-    <t>MARGARITA BBQ 30G</t>
-  </si>
-  <si>
-    <t>-4.914</t>
-  </si>
-  <si>
-    <t>NATUCHIPS VERDES 38G</t>
-  </si>
-  <si>
-    <t>4.914</t>
-  </si>
-  <si>
-    <t>DORITOS DINAMITA LIMON</t>
-  </si>
-  <si>
-    <t>8.620</t>
-  </si>
-  <si>
-    <t>14.000</t>
-  </si>
-  <si>
-    <t>MARGARITA LIMON 105G</t>
-  </si>
-  <si>
-    <t>-5.283</t>
-  </si>
-  <si>
-    <t>-8.000</t>
-  </si>
-  <si>
-    <t>MARGARITA ONDULADA MAYONESA 37G</t>
-  </si>
-  <si>
-    <t>1.638</t>
-  </si>
-  <si>
-    <t>MARGARITA NATURAL 105G</t>
-  </si>
-  <si>
-    <t>-21.132</t>
-  </si>
-  <si>
-    <t>-32.000</t>
-  </si>
-  <si>
-    <t>MARGARITA NATURAL 30G</t>
-  </si>
-  <si>
-    <t>6.552</t>
-  </si>
-  <si>
-    <t>DETODITO MIX 45G</t>
-  </si>
-  <si>
-    <t>4.094</t>
-  </si>
-  <si>
-    <t>DORITOS 43G</t>
-  </si>
-  <si>
-    <t>-3.604</t>
-  </si>
-  <si>
-    <t>MANIMOTO NAKED SAL</t>
-  </si>
-  <si>
-    <t>8.722</t>
-  </si>
-  <si>
-    <t>21.000</t>
-  </si>
-  <si>
-    <t>MARGARITA ONDULADAS TOMATE</t>
-  </si>
-  <si>
-    <t>MARGARITA POLLO 105G</t>
-  </si>
-  <si>
-    <t>-10.566</t>
-  </si>
-  <si>
-    <t>GRIP HEAD</t>
-  </si>
-  <si>
-    <t>-105.000</t>
-  </si>
-  <si>
-    <t>-225.000</t>
-  </si>
-  <si>
-    <t>MARGARITA RECETA CLASICA ALITAS</t>
-  </si>
-  <si>
-    <t>-18.840</t>
-  </si>
-  <si>
-    <t>-25.500</t>
-  </si>
-  <si>
-    <t>DETODITO BBQ150G</t>
-  </si>
-  <si>
-    <t>-124.010</t>
-  </si>
-  <si>
-    <t>GRIP WILSON</t>
-  </si>
-  <si>
-    <t>45.000</t>
-  </si>
-  <si>
-    <t>DETODITO LIMON 150G</t>
-  </si>
-  <si>
-    <t>ALQUILER PALA</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>522.000</t>
-  </si>
-  <si>
-    <t>3.915.000</t>
-  </si>
-  <si>
-    <t>NATUCHIPS MADUROS 38G</t>
-  </si>
-  <si>
-    <t>COLA Y POLA</t>
-  </si>
-  <si>
-    <t>DETODITO BBQ 45G</t>
-  </si>
-  <si>
-    <t>-6.141</t>
-  </si>
-  <si>
-    <t>MARGARITA POLLO 30G</t>
-  </si>
-  <si>
-    <t>9.828</t>
-  </si>
-  <si>
-    <t>18.000</t>
-  </si>
-  <si>
-    <t>NATUCHIPS VERDES 135G</t>
-  </si>
-  <si>
-    <t>-11.272</t>
-  </si>
-  <si>
-    <t>SALSA VERDE INSUMO GR</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>-336</t>
-  </si>
-  <si>
-    <t>-168.000</t>
-  </si>
-  <si>
-    <t>MARGARITA RECETA CLASICA SAL</t>
-  </si>
-  <si>
-    <t>12.560</t>
-  </si>
-  <si>
-    <t>17.000</t>
-  </si>
-  <si>
-    <t>MARGARITA ONDULADAS MAYONESA</t>
-  </si>
-  <si>
-    <t>5.283</t>
-  </si>
-  <si>
-    <t>CHEETOS BOLIQUESO</t>
-  </si>
-  <si>
-    <t>6.550</t>
-  </si>
-  <si>
-    <t>12.500</t>
-  </si>
-  <si>
-    <t>SALCHICHA RANCHERA INSUMO UND</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>CORONA INSUMO</t>
-  </si>
-  <si>
-    <t>BRETAÑA</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>72.905</t>
-  </si>
-  <si>
-    <t>DORITOS DINAMITA FLAMING HOT</t>
-  </si>
-  <si>
-    <t>-6.465</t>
-  </si>
-  <si>
-    <t>DETODITO LIMON 45G</t>
-  </si>
-  <si>
-    <t>6.141</t>
-  </si>
-  <si>
-    <t>CASERO MORA</t>
-  </si>
-  <si>
-    <t>30.209</t>
-  </si>
-  <si>
-    <t>45.900</t>
-  </si>
-  <si>
-    <t>CHOCLITOS 210G</t>
-  </si>
-  <si>
-    <t>-11.774</t>
-  </si>
-  <si>
-    <t>MARGARITA LIMON 30G</t>
-  </si>
-  <si>
-    <t>NATUCHIPS MADUROS 135G</t>
-  </si>
-  <si>
-    <t>11.272</t>
-  </si>
-  <si>
-    <t>GUDIZ 28G</t>
-  </si>
-  <si>
-    <t>4.505</t>
-  </si>
-  <si>
-    <t>MARGARITA ONDULADA TOMATE 37G</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT LATA</t>
-  </si>
-  <si>
-    <t>POLET</t>
-  </si>
-  <si>
-    <t>12.300</t>
-  </si>
-  <si>
-    <t>DETODITO MIX 150G</t>
-  </si>
-  <si>
-    <t>-12.400</t>
-  </si>
-  <si>
-    <t>DETODITO NATURAL 150G</t>
-  </si>
-  <si>
-    <t>-6.200</t>
-  </si>
-  <si>
-    <t>-8.500</t>
-  </si>
-  <si>
-    <t>SALSA PEPINILLO DULCE INSUMO GR</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>2225</t>
-  </si>
-  <si>
-    <t>4775</t>
-  </si>
-  <si>
-    <t>143.250</t>
-  </si>
-  <si>
-    <t>POKER LATON INSUMO</t>
-  </si>
-  <si>
-    <t>CARNE DE HAMBURGUESA UND</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>-85.000</t>
-  </si>
-  <si>
-    <t>TARRO BOLAS HEAD PADEL PRO</t>
-  </si>
-  <si>
-    <t>588.000</t>
-  </si>
-  <si>
-    <t>945.000</t>
-  </si>
-  <si>
-    <t>CILANTRO INSUMO GR</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-210</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT LATÓN</t>
-  </si>
-  <si>
-    <t>59.493</t>
-  </si>
-  <si>
-    <t>115.500</t>
-  </si>
-  <si>
-    <t>PIMIENTA INSUMO GR</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>-88</t>
-  </si>
-  <si>
-    <t>-26.400</t>
-  </si>
-  <si>
-    <t>SALSA HOLANDESA GR</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>-186</t>
-  </si>
-  <si>
-    <t>-9.300</t>
-  </si>
-  <si>
-    <t>APIO INSUMO GR</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>-140</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>4.130</t>
-  </si>
-  <si>
-    <t>PANCAKES UND</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>-30.600</t>
-  </si>
-  <si>
-    <t>HELADO ARTESANAL TRES LECHES</t>
-  </si>
-  <si>
-    <t>35.820</t>
-  </si>
-  <si>
-    <t>ACEITE INSUMO</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>2.000.000</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA LATA INSUMO</t>
-  </si>
-  <si>
-    <t>5.600</t>
-  </si>
-  <si>
-    <t>CHOCOCONO</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>-48.400</t>
-  </si>
-  <si>
-    <t>-70.000</t>
-  </si>
-  <si>
-    <t>ALMENDRA INSUMO GR</t>
-  </si>
-  <si>
-    <t>1099</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>CANELA INSUMO GR</t>
+    <t>60.106</t>
+  </si>
+  <si>
+    <t>123.000</t>
   </si>
 </sst>
 </file>
@@ -3783,134 +3777,134 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
         <v>218</v>
       </c>
       <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>219</v>
       </c>
-      <c r="D57" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>220</v>
-      </c>
-      <c r="F57" t="s">
-        <v>221</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
         <v>30</v>
       </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
       <c r="F59" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
         <v>227</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>228</v>
       </c>
       <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" t="s">
         <v>229</v>
       </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>230</v>
-      </c>
-      <c r="G61" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" t="s">
         <v>232</v>
       </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
         <v>233</v>
@@ -3921,7 +3915,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="B63" t="s">
         <v>235</v>
@@ -3930,27 +3924,27 @@
         <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F63" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
         <v>241</v>
@@ -3967,22 +3961,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
         <v>245</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>246</v>
-      </c>
-      <c r="F65" t="s">
-        <v>247</v>
       </c>
       <c r="G65" t="s">
         <v>247</v>
@@ -3990,7 +3984,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
         <v>248</v>
@@ -3999,36 +3993,36 @@
         <v>249</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
         <v>255</v>
-      </c>
-      <c r="F67" t="s">
-        <v>256</v>
       </c>
       <c r="G67" t="s">
         <v>256</v>
@@ -4036,298 +4030,298 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
         <v>257</v>
       </c>
       <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" t="s">
         <v>258</v>
       </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>259</v>
-      </c>
-      <c r="G68" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
         <v>261</v>
       </c>
-      <c r="C69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" t="s">
-        <v>262</v>
-      </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" t="s">
         <v>264</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70" t="s">
-        <v>265</v>
-      </c>
-      <c r="G70" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="G71" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" t="s">
+        <v>267</v>
+      </c>
+      <c r="E72" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" t="s">
         <v>269</v>
       </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" t="s">
-        <v>233</v>
-      </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>272</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>273</v>
-      </c>
-      <c r="G73" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" t="s">
         <v>275</v>
       </c>
-      <c r="C74" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>276</v>
-      </c>
-      <c r="G74" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" t="s">
         <v>278</v>
       </c>
-      <c r="C75" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
         <v>279</v>
       </c>
       <c r="G75" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" t="s">
         <v>281</v>
       </c>
-      <c r="C76" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
         <v>282</v>
-      </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>283</v>
-      </c>
-      <c r="G76" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
         <v>284</v>
       </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" t="s">
-        <v>285</v>
-      </c>
       <c r="G77" t="s">
-        <v>286</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" t="s">
         <v>287</v>
-      </c>
-      <c r="C78" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s">
-        <v>288</v>
-      </c>
-      <c r="G78" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" t="s">
         <v>289</v>
       </c>
-      <c r="C79" t="s">
-        <v>134</v>
-      </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
         <v>290</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
         <v>292</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>293</v>
-      </c>
-      <c r="D80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" t="s">
-        <v>294</v>
       </c>
       <c r="G80" t="s">
         <v>294</v>
@@ -4335,223 +4329,223 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
         <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" t="s">
         <v>296</v>
       </c>
-      <c r="E81" t="s">
-        <v>144</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>297</v>
-      </c>
-      <c r="G81" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
         <v>299</v>
       </c>
-      <c r="C82" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83" t="s">
         <v>302</v>
       </c>
-      <c r="C83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>303</v>
       </c>
-      <c r="E83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" t="s">
-        <v>178</v>
-      </c>
       <c r="G83" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
         <v>305</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>306</v>
-      </c>
-      <c r="F84" t="s">
-        <v>307</v>
-      </c>
-      <c r="G84" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" t="s">
         <v>308</v>
       </c>
-      <c r="C85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" t="s">
-        <v>309</v>
-      </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" t="s">
         <v>311</v>
       </c>
-      <c r="C86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
-        <v>194</v>
-      </c>
-      <c r="F86" t="s">
-        <v>312</v>
-      </c>
       <c r="G86" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" t="s">
         <v>313</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>314</v>
       </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G87" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="s">
         <v>318</v>
       </c>
-      <c r="E88" t="s">
-        <v>319</v>
-      </c>
-      <c r="F88" t="s">
-        <v>320</v>
-      </c>
       <c r="G88" t="s">
-        <v>320</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -4565,16 +4559,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
@@ -4588,177 +4582,177 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" t="s">
+        <v>324</v>
+      </c>
+      <c r="F92" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" t="s">
         <v>326</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>327</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="G93" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
+        <v>328</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" t="s">
+        <v>330</v>
+      </c>
+      <c r="F94" t="s">
         <v>331</v>
       </c>
-      <c r="C94" t="s">
-        <v>332</v>
-      </c>
-      <c r="D94" t="s">
-        <v>119</v>
-      </c>
-      <c r="E94" t="s">
-        <v>333</v>
-      </c>
-      <c r="F94" t="s">
-        <v>334</v>
-      </c>
       <c r="G94" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="F95" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G95" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" t="s">
+        <v>176</v>
+      </c>
+      <c r="F96" t="s">
+        <v>336</v>
+      </c>
+      <c r="G96" t="s">
         <v>337</v>
-      </c>
-      <c r="C96" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" t="s">
-        <v>338</v>
-      </c>
-      <c r="E96" t="s">
-        <v>339</v>
-      </c>
-      <c r="F96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G96" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" t="s">
+        <v>339</v>
+      </c>
+      <c r="D97" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" t="s">
         <v>341</v>
-      </c>
-      <c r="C97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D97" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" t="s">
-        <v>144</v>
       </c>
       <c r="F97" t="s">
         <v>342</v>
       </c>
       <c r="G97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
+        <v>343</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" t="s">
         <v>344</v>
       </c>
-      <c r="C98" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" t="s">
-        <v>30</v>
-      </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>345</v>
       </c>
       <c r="F98" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G98" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C99" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D99" t="s">
-        <v>349</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s">
         <v>350</v>
@@ -4772,318 +4766,318 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
         <v>352</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="D100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" t="s">
         <v>353</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>354</v>
       </c>
-      <c r="F100" t="s">
-        <v>355</v>
-      </c>
       <c r="G100" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>320</v>
+      </c>
+      <c r="F101" t="s">
+        <v>356</v>
+      </c>
+      <c r="G101" t="s">
         <v>357</v>
-      </c>
-      <c r="C101" t="s">
-        <v>358</v>
-      </c>
-      <c r="D101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s">
-        <v>359</v>
-      </c>
-      <c r="F101" t="s">
-        <v>360</v>
-      </c>
-      <c r="G101" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="E102" t="s">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G102" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" t="s">
+        <v>362</v>
+      </c>
+      <c r="F103" t="s">
+        <v>363</v>
+      </c>
+      <c r="G103" t="s">
         <v>364</v>
-      </c>
-      <c r="C103" t="s">
-        <v>324</v>
-      </c>
-      <c r="D103" t="s">
-        <v>30</v>
-      </c>
-      <c r="E103" t="s">
-        <v>324</v>
-      </c>
-      <c r="F103" t="s">
-        <v>365</v>
-      </c>
-      <c r="G103" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
+        <v>366</v>
+      </c>
+      <c r="F104" t="s">
         <v>367</v>
       </c>
-      <c r="C104" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" t="s">
-        <v>194</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>368</v>
-      </c>
-      <c r="G104" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="G105" t="s">
-        <v>373</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F106" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G106" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" t="s">
         <v>144</v>
       </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
       <c r="F107" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="G107" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="E108" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
-        <v>63</v>
+        <v>378</v>
       </c>
       <c r="E109" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="F109" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G109" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
+        <v>381</v>
+      </c>
+      <c r="C110" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" t="s">
+        <v>384</v>
+      </c>
+      <c r="F110" t="s">
         <v>385</v>
       </c>
-      <c r="C110" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" t="s">
-        <v>34</v>
-      </c>
-      <c r="E110" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>30</v>
-      </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
         <v>386</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" t="s">
+        <v>268</v>
+      </c>
+      <c r="F111" t="s">
         <v>387</v>
       </c>
-      <c r="E111" t="s">
-        <v>388</v>
-      </c>
-      <c r="F111" t="s">
-        <v>389</v>
-      </c>
       <c r="G111" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B112" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" t="s">
+        <v>389</v>
+      </c>
+      <c r="D112" t="s">
         <v>390</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>391</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>392</v>
       </c>
-      <c r="E112" t="s">
-        <v>393</v>
-      </c>
-      <c r="F112" t="s">
-        <v>394</v>
-      </c>
       <c r="G112" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" t="s">
+        <v>394</v>
+      </c>
+      <c r="D113" t="s">
+        <v>172</v>
+      </c>
+      <c r="E113" t="s">
         <v>395</v>
-      </c>
-      <c r="C113" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E113" t="s">
-        <v>272</v>
       </c>
       <c r="F113" t="s">
         <v>396</v>
@@ -5094,7 +5088,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s">
         <v>397</v>
@@ -5103,53 +5097,53 @@
         <v>398</v>
       </c>
       <c r="D114" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" t="s">
         <v>399</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>400</v>
       </c>
-      <c r="F114" t="s">
-        <v>401</v>
-      </c>
       <c r="G114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B115" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" t="s">
         <v>402</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" t="s">
         <v>403</v>
       </c>
-      <c r="D115" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>404</v>
       </c>
-      <c r="F115" t="s">
-        <v>405</v>
-      </c>
       <c r="G115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="B116" t="s">
+        <v>405</v>
+      </c>
+      <c r="C116" t="s">
         <v>406</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>407</v>
-      </c>
-      <c r="D116" t="s">
-        <v>185</v>
       </c>
       <c r="E116" t="s">
         <v>408</v>
@@ -5163,7 +5157,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B117" t="s">
         <v>410</v>
@@ -5172,99 +5166,99 @@
         <v>411</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>412</v>
       </c>
       <c r="E117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B118" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C118" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D118" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E119" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F119" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G119" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="B120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D120" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F120" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G120" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D121" t="s">
-        <v>431</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
         <v>432</v>
@@ -5278,7 +5272,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
         <v>434</v>
@@ -5301,7 +5295,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
         <v>439</v>
@@ -5310,67 +5304,67 @@
         <v>440</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E123" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" t="s">
         <v>441</v>
       </c>
-      <c r="F123" t="s">
-        <v>442</v>
-      </c>
       <c r="G123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
+        <v>442</v>
+      </c>
+      <c r="C124" t="s">
         <v>443</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>444</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>445</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>446</v>
       </c>
-      <c r="F124" t="s">
-        <v>447</v>
-      </c>
       <c r="G124" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" t="s">
         <v>448</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>449</v>
       </c>
-      <c r="D125" t="s">
-        <v>42</v>
-      </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="F125" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>450</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
         <v>451</v>
@@ -5393,7 +5387,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>203</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
         <v>456</v>
@@ -5402,21 +5396,21 @@
         <v>457</v>
       </c>
       <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>457</v>
+      </c>
+      <c r="F127" t="s">
         <v>458</v>
       </c>
-      <c r="E127" t="s">
+      <c r="G127" t="s">
         <v>459</v>
-      </c>
-      <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
         <v>460</v>
@@ -5439,7 +5433,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
         <v>465</v>
@@ -5448,50 +5442,50 @@
         <v>466</v>
       </c>
       <c r="D129" t="s">
-        <v>30</v>
+        <v>467</v>
       </c>
       <c r="E129" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F129" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G129" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C130" t="s">
-        <v>470</v>
+        <v>123</v>
       </c>
       <c r="D130" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E130" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F130" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G130" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="B131" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C131" t="s">
-        <v>475</v>
+        <v>209</v>
       </c>
       <c r="D131" t="s">
         <v>476</v>
@@ -5503,18 +5497,18 @@
         <v>478</v>
       </c>
       <c r="G131" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
+        <v>479</v>
+      </c>
+      <c r="C132" t="s">
         <v>480</v>
-      </c>
-      <c r="C132" t="s">
-        <v>123</v>
       </c>
       <c r="D132" t="s">
         <v>481</v>
@@ -5523,159 +5517,159 @@
         <v>482</v>
       </c>
       <c r="F132" t="s">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>483</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
+        <v>483</v>
+      </c>
+      <c r="C133" t="s">
         <v>484</v>
       </c>
-      <c r="C133" t="s">
-        <v>209</v>
-      </c>
       <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" t="s">
+        <v>484</v>
+      </c>
+      <c r="F133" t="s">
         <v>485</v>
       </c>
-      <c r="E133" t="s">
-        <v>486</v>
-      </c>
-      <c r="F133" t="s">
-        <v>487</v>
-      </c>
       <c r="G133" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="B134" t="s">
+        <v>486</v>
+      </c>
+      <c r="C134" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" t="s">
         <v>488</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>489</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>490</v>
       </c>
-      <c r="E134" t="s">
-        <v>491</v>
-      </c>
-      <c r="F134" t="s">
-        <v>40</v>
-      </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B135" t="s">
+        <v>491</v>
+      </c>
+      <c r="C135" t="s">
+        <v>484</v>
+      </c>
+      <c r="D135" t="s">
         <v>492</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" t="s">
         <v>493</v>
       </c>
-      <c r="D135" t="s">
-        <v>30</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="G135" t="s">
         <v>493</v>
-      </c>
-      <c r="F135" t="s">
-        <v>494</v>
-      </c>
-      <c r="G135" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C136" t="s">
-        <v>496</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
-        <v>497</v>
+        <v>201</v>
       </c>
       <c r="E136" t="s">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="F136" t="s">
-        <v>499</v>
+        <v>234</v>
       </c>
       <c r="G136" t="s">
-        <v>499</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C137" t="s">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="D137" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E137" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="F137" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G137" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B138" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="D138" t="s">
-        <v>201</v>
+        <v>398</v>
       </c>
       <c r="E138" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="F138" t="s">
-        <v>238</v>
+        <v>502</v>
       </c>
       <c r="G138" t="s">
-        <v>238</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
+        <v>503</v>
+      </c>
+      <c r="C139" t="s">
         <v>504</v>
-      </c>
-      <c r="C139" t="s">
-        <v>172</v>
       </c>
       <c r="D139" t="s">
         <v>505</v>
@@ -5687,110 +5681,110 @@
         <v>507</v>
       </c>
       <c r="G139" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B140" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C140" t="s">
-        <v>509</v>
+        <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>407</v>
+        <v>125</v>
       </c>
       <c r="E140" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="F140" t="s">
-        <v>511</v>
+        <v>293</v>
       </c>
       <c r="G140" t="s">
-        <v>511</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C141" t="s">
-        <v>513</v>
+        <v>267</v>
       </c>
       <c r="D141" t="s">
-        <v>514</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>515</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G141" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C142" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="E142" t="s">
-        <v>144</v>
+        <v>514</v>
       </c>
       <c r="F142" t="s">
-        <v>297</v>
+        <v>515</v>
       </c>
       <c r="G142" t="s">
-        <v>297</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B143" t="s">
+        <v>516</v>
+      </c>
+      <c r="C143" t="s">
+        <v>124</v>
+      </c>
+      <c r="D143" t="s">
+        <v>517</v>
+      </c>
+      <c r="E143" t="s">
+        <v>518</v>
+      </c>
+      <c r="F143" t="s">
         <v>519</v>
       </c>
-      <c r="C143" t="s">
-        <v>271</v>
-      </c>
-      <c r="D143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" t="s">
-        <v>29</v>
-      </c>
-      <c r="F143" t="s">
-        <v>520</v>
-      </c>
       <c r="G143" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
+        <v>520</v>
+      </c>
+      <c r="C144" t="s">
         <v>521</v>
-      </c>
-      <c r="C144" t="s">
-        <v>403</v>
       </c>
       <c r="D144" t="s">
         <v>522</v>
@@ -5807,13 +5801,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B145" t="s">
         <v>525</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D145" t="s">
         <v>526</v>
@@ -5830,59 +5824,59 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B146" t="s">
         <v>529</v>
       </c>
       <c r="C146" t="s">
+        <v>340</v>
+      </c>
+      <c r="D146" t="s">
         <v>530</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>531</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>532</v>
       </c>
-      <c r="F146" t="s">
-        <v>533</v>
-      </c>
       <c r="G146" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
+        <v>533</v>
+      </c>
+      <c r="C147" t="s">
         <v>534</v>
-      </c>
-      <c r="C147" t="s">
-        <v>94</v>
       </c>
       <c r="D147" t="s">
         <v>535</v>
       </c>
       <c r="E147" t="s">
+        <v>118</v>
+      </c>
+      <c r="F147" t="s">
         <v>536</v>
       </c>
-      <c r="F147" t="s">
-        <v>537</v>
-      </c>
       <c r="G147" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B148" t="s">
+        <v>537</v>
+      </c>
+      <c r="C148" t="s">
         <v>538</v>
-      </c>
-      <c r="C148" t="s">
-        <v>349</v>
       </c>
       <c r="D148" t="s">
         <v>539</v>
@@ -5899,1347 +5893,1347 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>542</v>
       </c>
       <c r="C149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>134</v>
+      </c>
+      <c r="F149" t="s">
         <v>543</v>
       </c>
-      <c r="D149" t="s">
-        <v>544</v>
-      </c>
-      <c r="E149" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" t="s">
-        <v>545</v>
-      </c>
       <c r="G149" t="s">
-        <v>545</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="B150" t="s">
+        <v>544</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>545</v>
+      </c>
+      <c r="G150" t="s">
         <v>546</v>
-      </c>
-      <c r="C150" t="s">
-        <v>547</v>
-      </c>
-      <c r="D150" t="s">
-        <v>548</v>
-      </c>
-      <c r="E150" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" t="s">
-        <v>550</v>
-      </c>
-      <c r="G150" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B151" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C151" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="F151" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G151" t="s">
-        <v>238</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G152" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C153" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="E153" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="F153" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G153" t="s">
-        <v>558</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="B154" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>554</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="F154" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G154" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="D155" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G155" t="s">
-        <v>280</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="B156" t="s">
+        <v>560</v>
+      </c>
+      <c r="C156" t="s">
+        <v>134</v>
+      </c>
+      <c r="D156" t="s">
+        <v>267</v>
+      </c>
+      <c r="E156" t="s">
+        <v>194</v>
+      </c>
+      <c r="F156" t="s">
+        <v>561</v>
+      </c>
+      <c r="G156" t="s">
         <v>562</v>
-      </c>
-      <c r="C156" t="s">
-        <v>362</v>
-      </c>
-      <c r="D156" t="s">
-        <v>563</v>
-      </c>
-      <c r="E156" t="s">
-        <v>564</v>
-      </c>
-      <c r="F156" t="s">
-        <v>565</v>
-      </c>
-      <c r="G156" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B157" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C157" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="D157" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" t="s">
         <v>13</v>
       </c>
-      <c r="E157" t="s">
-        <v>29</v>
-      </c>
       <c r="F157" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G157" t="s">
-        <v>568</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C158" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="E158" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F158" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G158" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
+        <v>143</v>
+      </c>
+      <c r="B159" t="s">
+        <v>568</v>
+      </c>
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" t="s">
+        <v>267</v>
+      </c>
+      <c r="E159" t="s">
         <v>144</v>
       </c>
-      <c r="B159" t="s">
-        <v>572</v>
-      </c>
-      <c r="C159" t="s">
-        <v>189</v>
-      </c>
-      <c r="D159" t="s">
-        <v>176</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
       <c r="F159" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B160" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="D160" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E160" t="s">
         <v>176</v>
       </c>
       <c r="F160" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G160" t="s">
-        <v>576</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C161" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="D161" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="E161" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F161" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G161" t="s">
-        <v>297</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B162" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C162" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>176</v>
+        <v>324</v>
       </c>
       <c r="F162" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G162" t="s">
-        <v>217</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C163" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="E163" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="F163" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G163" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B164" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C164" t="s">
+        <v>267</v>
+      </c>
+      <c r="D164" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" t="s">
         <v>134</v>
       </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" t="s">
-        <v>328</v>
-      </c>
       <c r="F164" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G164" t="s">
-        <v>586</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B165" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
         <v>176</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>119</v>
       </c>
-      <c r="E165" t="s">
-        <v>29</v>
-      </c>
       <c r="F165" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G165" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C166" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="E166" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F166" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G166" t="s">
-        <v>591</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B167" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="D167" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F167" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G167" t="s">
-        <v>120</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D168" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E168" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>595</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D169" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="E169" t="s">
         <v>194</v>
       </c>
       <c r="F169" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G169" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B170" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C170" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="F170" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G170" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B171" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C171" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>597</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>598</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B172" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C172" t="s">
+        <v>119</v>
+      </c>
+      <c r="D172" t="s">
         <v>134</v>
-      </c>
-      <c r="D172" t="s">
-        <v>271</v>
       </c>
       <c r="E172" t="s">
         <v>194</v>
       </c>
       <c r="F172" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G172" t="s">
-        <v>196</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C173" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="D173" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="E173" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="F173" t="s">
-        <v>605</v>
+        <v>297</v>
       </c>
       <c r="G173" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B174" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
       </c>
       <c r="E174" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>608</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>609</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B175" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C175" t="s">
-        <v>119</v>
+        <v>605</v>
       </c>
       <c r="D175" t="s">
-        <v>134</v>
+        <v>606</v>
       </c>
       <c r="E175" t="s">
-        <v>194</v>
+        <v>607</v>
       </c>
       <c r="F175" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G175" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C176" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E176" t="s">
         <v>176</v>
       </c>
       <c r="F176" t="s">
-        <v>301</v>
+        <v>571</v>
       </c>
       <c r="G176" t="s">
-        <v>613</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B177" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C177" t="s">
         <v>134</v>
       </c>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B178" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>176</v>
       </c>
       <c r="D178" t="s">
-        <v>617</v>
+        <v>267</v>
       </c>
       <c r="E178" t="s">
-        <v>618</v>
+        <v>144</v>
       </c>
       <c r="F178" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G178" t="s">
-        <v>620</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B179" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E179" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="F179" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="G179" t="s">
-        <v>217</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B180" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C180" t="s">
+        <v>119</v>
+      </c>
+      <c r="D180" t="s">
         <v>134</v>
       </c>
-      <c r="D180" t="s">
-        <v>189</v>
-      </c>
       <c r="E180" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F180" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="G180" t="s">
-        <v>196</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="B181" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C181" t="s">
-        <v>176</v>
+        <v>620</v>
       </c>
       <c r="D181" t="s">
-        <v>271</v>
+        <v>513</v>
       </c>
       <c r="E181" t="s">
-        <v>144</v>
+        <v>621</v>
       </c>
       <c r="F181" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G181" t="s">
-        <v>343</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B182" t="s">
+        <v>623</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>176</v>
+      </c>
+      <c r="E182" t="s">
+        <v>119</v>
+      </c>
+      <c r="F182" t="s">
+        <v>624</v>
+      </c>
+      <c r="G182" t="s">
         <v>625</v>
-      </c>
-      <c r="C182" t="s">
-        <v>236</v>
-      </c>
-      <c r="D182" t="s">
-        <v>134</v>
-      </c>
-      <c r="E182" t="s">
-        <v>271</v>
-      </c>
-      <c r="F182" t="s">
-        <v>626</v>
-      </c>
-      <c r="G182" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C183" t="s">
+        <v>176</v>
+      </c>
+      <c r="D183" t="s">
         <v>119</v>
       </c>
-      <c r="D183" t="s">
-        <v>134</v>
-      </c>
       <c r="E183" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="F183" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G183" t="s">
-        <v>571</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="B184" t="s">
+        <v>628</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>629</v>
+      </c>
+      <c r="G184" t="s">
         <v>630</v>
-      </c>
-      <c r="C184" t="s">
-        <v>631</v>
-      </c>
-      <c r="D184" t="s">
-        <v>522</v>
-      </c>
-      <c r="E184" t="s">
-        <v>632</v>
-      </c>
-      <c r="F184" t="s">
-        <v>633</v>
-      </c>
-      <c r="G184" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="B185" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>448</v>
       </c>
       <c r="D185" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="E185" t="s">
-        <v>119</v>
+        <v>366</v>
       </c>
       <c r="F185" t="s">
-        <v>635</v>
+        <v>368</v>
       </c>
       <c r="G185" t="s">
-        <v>636</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C186" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="D186" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="E186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>638</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>635</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F187" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G187" t="s">
-        <v>641</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="B188" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C188" t="s">
-        <v>457</v>
+        <v>268</v>
       </c>
       <c r="D188" t="s">
-        <v>643</v>
+        <v>320</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>144</v>
       </c>
       <c r="F188" t="s">
-        <v>377</v>
+        <v>638</v>
       </c>
       <c r="G188" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="B189" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C189" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="D189" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>640</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C190" t="s">
-        <v>646</v>
+        <v>46</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E190" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F190" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G190" t="s">
-        <v>100</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B191" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C191" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="D191" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="F191" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G191" t="s">
-        <v>343</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B192" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C192" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="D192" t="s">
+        <v>119</v>
+      </c>
+      <c r="E192" t="s">
         <v>134</v>
       </c>
-      <c r="E192" t="s">
-        <v>176</v>
-      </c>
       <c r="F192" t="s">
-        <v>651</v>
+        <v>582</v>
       </c>
       <c r="G192" t="s">
-        <v>346</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="B193" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D193" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E193" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F193" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G193" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C194" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" t="s">
         <v>13</v>
       </c>
-      <c r="E194" t="s">
-        <v>194</v>
-      </c>
       <c r="F194" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G194" t="s">
-        <v>196</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B195" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C195" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="D195" t="s">
         <v>119</v>
       </c>
       <c r="E195" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="F195" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="G195" t="s">
-        <v>120</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B196" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C196" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="D196" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>659</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D197" t="s">
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="F197" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G197" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B198" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C198" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D198" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="F198" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="G198" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B199" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D199" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>658</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B200" t="s">
+        <v>660</v>
+      </c>
+      <c r="C200" t="s">
+        <v>661</v>
+      </c>
+      <c r="D200" t="s">
+        <v>662</v>
+      </c>
+      <c r="E200" t="s">
+        <v>663</v>
+      </c>
+      <c r="F200" t="s">
         <v>664</v>
       </c>
-      <c r="C200" t="s">
-        <v>176</v>
-      </c>
-      <c r="D200" t="s">
-        <v>30</v>
-      </c>
-      <c r="E200" t="s">
-        <v>176</v>
-      </c>
-      <c r="F200" t="s">
-        <v>665</v>
-      </c>
       <c r="G200" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C201" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="E201" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>667</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
-        <v>571</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B202" t="s">
+        <v>666</v>
+      </c>
+      <c r="C202" t="s">
+        <v>123</v>
+      </c>
+      <c r="D202" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" t="s">
+        <v>667</v>
+      </c>
+      <c r="F202" t="s">
         <v>668</v>
       </c>
-      <c r="C202" t="s">
-        <v>134</v>
-      </c>
-      <c r="D202" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" t="s">
-        <v>328</v>
-      </c>
-      <c r="F202" t="s">
-        <v>669</v>
-      </c>
       <c r="G202" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="B203" t="s">
+        <v>669</v>
+      </c>
+      <c r="C203" t="s">
+        <v>440</v>
+      </c>
+      <c r="D203" t="s">
+        <v>310</v>
+      </c>
+      <c r="E203" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" t="s">
+        <v>670</v>
+      </c>
+      <c r="G203" t="s">
         <v>671</v>
-      </c>
-      <c r="C203" t="s">
-        <v>672</v>
-      </c>
-      <c r="D203" t="s">
-        <v>673</v>
-      </c>
-      <c r="E203" t="s">
-        <v>674</v>
-      </c>
-      <c r="F203" t="s">
-        <v>675</v>
-      </c>
-      <c r="G203" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="B204" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C204" t="s">
-        <v>353</v>
+        <v>673</v>
       </c>
       <c r="D204" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>46</v>
+        <v>673</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>674</v>
       </c>
       <c r="G204" t="s">
-        <v>47</v>
+        <v>675</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B205" t="s">
+        <v>676</v>
+      </c>
+      <c r="C205" t="s">
         <v>677</v>
       </c>
-      <c r="C205" t="s">
-        <v>123</v>
-      </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>678</v>
       </c>
       <c r="E205" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F205" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G205" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B206" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C206" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="D206" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="E206" t="s">
         <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G206" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B207" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C207" t="s">
-        <v>684</v>
+        <v>290</v>
       </c>
       <c r="D207" t="s">
         <v>685</v>
@@ -7256,255 +7250,255 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="B208" t="s">
         <v>688</v>
       </c>
       <c r="C208" t="s">
-        <v>229</v>
+        <v>421</v>
       </c>
       <c r="D208" t="s">
-        <v>189</v>
+        <v>689</v>
       </c>
       <c r="E208" t="s">
-        <v>34</v>
+        <v>690</v>
       </c>
       <c r="F208" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G208" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="B209" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C209" t="s">
-        <v>294</v>
+        <v>693</v>
       </c>
       <c r="D209" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E209" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F209" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G209" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B210" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C210" t="s">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="D210" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E210" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F210" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G210" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="B211" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C211" t="s">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="D211" t="s">
-        <v>701</v>
+        <v>30</v>
       </c>
       <c r="E211" t="s">
+        <v>201</v>
+      </c>
+      <c r="F211" t="s">
         <v>702</v>
       </c>
-      <c r="F211" t="s">
-        <v>703</v>
-      </c>
       <c r="G211" t="s">
-        <v>703</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="B212" t="s">
+        <v>703</v>
+      </c>
+      <c r="C212" t="s">
         <v>704</v>
       </c>
-      <c r="C212" t="s">
-        <v>140</v>
-      </c>
       <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" t="s">
+        <v>704</v>
+      </c>
+      <c r="F212" t="s">
         <v>705</v>
       </c>
-      <c r="E212" t="s">
-        <v>706</v>
-      </c>
-      <c r="F212" t="s">
-        <v>707</v>
-      </c>
       <c r="G212" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B213" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C213" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="D213" t="s">
         <v>30</v>
       </c>
       <c r="E213" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="F213" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G213" t="s">
-        <v>152</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
+        <v>708</v>
+      </c>
+      <c r="C214" t="s">
+        <v>232</v>
+      </c>
+      <c r="D214" t="s">
+        <v>709</v>
+      </c>
+      <c r="E214" t="s">
+        <v>80</v>
+      </c>
+      <c r="F214" t="s">
         <v>710</v>
       </c>
-      <c r="C214" t="s">
+      <c r="G214" t="s">
         <v>711</v>
-      </c>
-      <c r="D214" t="s">
-        <v>30</v>
-      </c>
-      <c r="E214" t="s">
-        <v>711</v>
-      </c>
-      <c r="F214" t="s">
-        <v>712</v>
-      </c>
-      <c r="G214" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="B215" t="s">
+        <v>712</v>
+      </c>
+      <c r="C215" t="s">
         <v>713</v>
       </c>
-      <c r="C215" t="s">
-        <v>119</v>
-      </c>
       <c r="D215" t="s">
-        <v>30</v>
+        <v>714</v>
       </c>
       <c r="E215" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="F215" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G215" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B216" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C216" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="D216" t="s">
-        <v>716</v>
+        <v>123</v>
       </c>
       <c r="E216" t="s">
-        <v>80</v>
+        <v>709</v>
       </c>
       <c r="F216" t="s">
-        <v>717</v>
+        <v>217</v>
       </c>
       <c r="G216" t="s">
-        <v>718</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B217" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C217" t="s">
-        <v>720</v>
+        <v>176</v>
       </c>
       <c r="D217" t="s">
-        <v>721</v>
+        <v>144</v>
       </c>
       <c r="E217" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>722</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>722</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="B218" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C218" t="s">
-        <v>139</v>
+        <v>719</v>
       </c>
       <c r="D218" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="E218" t="s">
-        <v>716</v>
+        <v>635</v>
       </c>
       <c r="F218" t="s">
-        <v>217</v>
+        <v>720</v>
       </c>
       <c r="G218" t="s">
-        <v>217</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Cruce de inventarios  .xlsx
+++ b/dfpyme/Cruce de inventarios  .xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t xml:space="preserve">CRUCE DE INVENTARIOS </t>
   </si>
   <si>
-    <t>PORKOS S.A.S</t>
-  </si>
-  <si>
-    <t>NIT: 901818849</t>
-  </si>
-  <si>
-    <t>Dirección: CR 23 75A 45 LC 1 MANIZALES Caldas</t>
+    <t>JUAN ESTEBAN TEJADA GIRALDO</t>
+  </si>
+  <si>
+    <t>NIT: 1116283241</t>
+  </si>
+  <si>
+    <t>Dirección: CL 1 12 08 BRR LA REBECA PEREIRA Rda.</t>
   </si>
   <si>
     <t xml:space="preserve">Código </t>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t xml:space="preserve">Valor venta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADICION DE PROTEÍNA </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-16.000</t>
+  </si>
+  <si>
+    <t>-32.000</t>
   </si>
 </sst>
 </file>
@@ -435,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A7" sqref="A7:G7"/>
@@ -513,6 +531,29 @@
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Cruce de inventarios  .xlsx
+++ b/dfpyme/Cruce de inventarios  .xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t xml:space="preserve">CRUCE DE INVENTARIOS </t>
   </si>
   <si>
-    <t>JUAN ESTEBAN TEJADA GIRALDO</t>
-  </si>
-  <si>
-    <t>NIT: 1116283241</t>
-  </si>
-  <si>
-    <t>Dirección: CL 1 12 08 BRR LA REBECA PEREIRA Rda.</t>
+    <t xml:space="preserve">Federación Nacional de Cafeteros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEDERACIÓN NACIONAL DE CAFETEROS </t>
+  </si>
+  <si>
+    <t>NIT: 860007538-2</t>
+  </si>
+  <si>
+    <t>Dirección: Car 9 No 36-43 PV UKUMARI PEREIRA Risaralda</t>
   </si>
   <si>
     <t xml:space="preserve">Código </t>
@@ -50,22 +53,16 @@
     <t xml:space="preserve">Valor venta </t>
   </si>
   <si>
-    <t xml:space="preserve">ADICION DE PROTEÍNA </t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-16.000</t>
-  </si>
-  <si>
-    <t>-32.000</t>
+    <t>ACEITE VEGETAL</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -474,7 +471,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -485,7 +482,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -496,7 +493,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -512,48 +509,48 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
